--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D2CC25-E09E-496E-AA2C-E4B6A3C6B471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C70424-2F8F-4C4D-A28A-92CB9E57719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="185">
   <si>
     <t>Date</t>
   </si>
@@ -575,6 +575,15 @@
   </si>
   <si>
     <t>Started reading (Estimation of Snow Depth in the Hindu Kush Himalayas of Afghanistan during Peak Winter and Early Melt Season)</t>
+  </si>
+  <si>
+    <t>I continued reading (Estimation of Snow Depth in the Hindu Kush Himalayas of Afghanistan during Peak Winter and Early Melt Season)</t>
+  </si>
+  <si>
+    <t>SAR for HAZARD: Module2</t>
+  </si>
+  <si>
+    <t>FIQ-Module1, 2</t>
   </si>
 </sst>
 </file>
@@ -979,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +999,7 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="50.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1317,7 +1326,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44460</v>
       </c>
@@ -1326,6 +1335,15 @@
       </c>
       <c r="C22" t="s">
         <v>180</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -15827,10 +15845,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C70424-2F8F-4C4D-A28A-92CB9E57719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0D08D0-699E-4065-A127-9CBAA0850092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="192">
   <si>
     <t>Date</t>
   </si>
@@ -584,6 +584,27 @@
   </si>
   <si>
     <t>FIQ-Module1, 2</t>
+  </si>
+  <si>
+    <t>DInSAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow pertimitivity to improve the estimation of snowpack displacement </t>
+  </si>
+  <si>
+    <t>Sentinel 1; Landsat 8 for snow cover Area</t>
+  </si>
+  <si>
+    <t>I read (Estimation of Snow Depth in the Hindu Kush Himalayas of Afghanistan during Peak Winter and Early Melt Season)</t>
+  </si>
+  <si>
+    <t>FIQ-Module3, 4</t>
+  </si>
+  <si>
+    <t>SAR for HAZARD: Module 2</t>
+  </si>
+  <si>
+    <t>23/1833</t>
   </si>
 </sst>
 </file>
@@ -988,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,12 +1367,24 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44461</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -15848,7 +15881,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16064,10 +16097,19 @@
         <v>101</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>118</v>
+        <v>187</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>124</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0D08D0-699E-4065-A127-9CBAA0850092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2BA568-678D-4A2A-ACB5-C39D77A928D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="196">
   <si>
     <t>Date</t>
   </si>
@@ -605,6 +605,18 @@
   </si>
   <si>
     <t>23/1833</t>
+  </si>
+  <si>
+    <t>24/1833</t>
+  </si>
+  <si>
+    <t>FIQ-Module5</t>
+  </si>
+  <si>
+    <t>SAR for HAZARD: Module3</t>
+  </si>
+  <si>
+    <t>I scan (Evaluating the Preconditions of Two Remote Sensing SWE Retrieval Algorithms over the US)</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1022,7 @@
   <dimension ref="A1:G1833"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,12 +1399,24 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44462</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -15881,7 +15905,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2BA568-678D-4A2A-ACB5-C39D77A928D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E35C499-E83B-42C1-9F23-99781C2471AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="200">
   <si>
     <t>Date</t>
   </si>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t>I scan (Evaluating the Preconditions of Two Remote Sensing SWE Retrieval Algorithms over the US)</t>
+  </si>
+  <si>
+    <t>25/1833</t>
+  </si>
+  <si>
+    <t>I read (Evaluating the Preconditions of Two Remote Sensing SWE Retrieval Algorithms over the US)</t>
+  </si>
+  <si>
+    <t>FIQ-Module6</t>
+  </si>
+  <si>
+    <t>SAR for HAZARD: Module 3.2</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1034,7 @@
   <dimension ref="A1:G1833"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,12 +1431,24 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44463</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E35C499-E83B-42C1-9F23-99781C2471AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57536551-DD61-4878-8791-E2729BA78AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="205">
   <si>
     <t>Date</t>
   </si>
@@ -629,6 +629,21 @@
   </si>
   <si>
     <t>SAR for HAZARD: Module 3.2</t>
+  </si>
+  <si>
+    <t>FIQ-Module7,8</t>
+  </si>
+  <si>
+    <t>SAR for HAZARD: 3.3</t>
+  </si>
+  <si>
+    <t>26/1833</t>
+  </si>
+  <si>
+    <t>InSAR, modelled microwave phase delay</t>
+  </si>
+  <si>
+    <t>I read (On The Estimation of Temporal Changes of Snow Water Equivalent by Spaceborne Sar Interferometry: A New Application for the Sentinel-1 Mission)</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,12 +1466,24 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44464</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -15926,10 +15953,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16218,7 +16245,7 @@
         <v>128</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>129</v>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57536551-DD61-4878-8791-E2729BA78AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B339173-1BF3-4883-AB98-1B374F9404E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="210">
   <si>
     <t>Date</t>
   </si>
@@ -421,9 +421,6 @@
     <t>the proposed methodology could map SWE also over regions covered by shrubs or low vegetation.</t>
   </si>
   <si>
-    <t>TANDEM-X</t>
-  </si>
-  <si>
     <t>Single Pass InSAR</t>
   </si>
   <si>
@@ -644,6 +641,24 @@
   </si>
   <si>
     <t>I read (On The Estimation of Temporal Changes of Snow Water Equivalent by Spaceborne Sar Interferometry: A New Application for the Sentinel-1 Mission)</t>
+  </si>
+  <si>
+    <t>27/1833</t>
+  </si>
+  <si>
+    <t>TANDEM-X; ascending mode</t>
+  </si>
+  <si>
+    <t>I read (WET SNOW DEPTH FROM TANDEM-X SINGLE-PASS INSAR DEM DIFFERENCING*)</t>
+  </si>
+  <si>
+    <t>SAR for HAZARD: 3.4</t>
+  </si>
+  <si>
+    <t>FIQ-Module8,9</t>
+  </si>
+  <si>
+    <t>GEOPH QUIZ</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1833"/>
+  <dimension ref="A1:H1833"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>108</v>
@@ -1213,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
         <v>117</v>
@@ -1230,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>119</v>
@@ -1247,16 +1262,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
         <v>140</v>
-      </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1267,13 +1282,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1284,13 +1299,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1301,13 +1316,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44455</v>
       </c>
@@ -1315,13 +1330,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44456</v>
       </c>
@@ -1329,13 +1344,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44457</v>
       </c>
@@ -1343,13 +1358,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44458</v>
       </c>
@@ -1357,16 +1372,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44459</v>
       </c>
@@ -1374,19 +1389,19 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
         <v>172</v>
       </c>
-      <c r="G21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44460</v>
       </c>
@@ -1394,19 +1409,19 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
         <v>182</v>
       </c>
-      <c r="F22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44461</v>
       </c>
@@ -1414,19 +1429,19 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>189</v>
       </c>
-      <c r="G23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44462</v>
       </c>
@@ -1434,19 +1449,19 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>193</v>
       </c>
-      <c r="G24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44463</v>
       </c>
@@ -1454,19 +1469,19 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" t="s">
         <v>197</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>198</v>
       </c>
-      <c r="G25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44464</v>
       </c>
@@ -1474,27 +1489,42 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
         <v>200</v>
       </c>
-      <c r="G26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44465</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44466</v>
       </c>
@@ -1502,7 +1532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44467</v>
       </c>
@@ -1510,7 +1540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44468</v>
       </c>
@@ -1518,7 +1548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44469</v>
       </c>
@@ -1526,7 +1556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44470</v>
       </c>
@@ -15953,10 +15983,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16008,13 +16038,13 @@
         <v>92</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>95</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>97</v>
@@ -16105,16 +16135,16 @@
         <v>101</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16143,7 +16173,7 @@
         <v>112</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>113</v>
@@ -16172,7 +16202,7 @@
         <v>101</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>128</v>
@@ -16181,10 +16211,10 @@
         <v>124</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O7" t="s">
         <v>185</v>
-      </c>
-      <c r="O7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -16245,7 +16275,7 @@
         <v>128</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>129</v>
@@ -16274,10 +16304,10 @@
         <v>121</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -16316,7 +16346,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>121</v>
@@ -16328,7 +16358,7 @@
         <v>128</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -16348,16 +16378,16 @@
         <v>10</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>121</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -16401,7 +16431,7 @@
         <v>88</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -16425,7 +16455,7 @@
         <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>127</v>
@@ -16452,10 +16482,10 @@
         <v>121</v>
       </c>
       <c r="H17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -16574,7 +16604,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -16661,13 +16691,13 @@
         <v>92</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>95</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>97</v>
@@ -16678,26 +16708,26 @@
         <v>2020</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="E2" s="7">
         <v>5</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
         <v>158</v>
       </c>
-      <c r="H2" t="s">
-        <v>159</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B339173-1BF3-4883-AB98-1B374F9404E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49761DA4-85CA-463A-809D-5E0CD64604B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -652,20 +652,54 @@
     <t>I read (WET SNOW DEPTH FROM TANDEM-X SINGLE-PASS INSAR DEM DIFFERENCING*)</t>
   </si>
   <si>
-    <t>SAR for HAZARD: 3.4</t>
-  </si>
-  <si>
-    <t>FIQ-Module8,9</t>
-  </si>
-  <si>
-    <t>GEOPH QUIZ</t>
+    <t>28/1833</t>
+  </si>
+  <si>
+    <t>FIQ-Module8</t>
+  </si>
+  <si>
+    <t>FIQ-Module9</t>
+  </si>
+  <si>
+    <r>
+      <t>I scan (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L-Band Temporal Coherence Assessment and Modeling Using Amplitude and Snow Depth over Interior Alaska</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>SAR for HAZARD: 3.4; GEOPH QUIZ</t>
+  </si>
+  <si>
+    <t>SAR for HAZARD: Module 3 Lab; GEOPH QUIZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +726,13 @@
       <color rgb="FF000000"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -750,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -781,6 +822,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,8 +1110,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1129,7 @@
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,8 +1151,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44440</v>
       </c>
@@ -1110,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44441</v>
       </c>
@@ -1119,7 +1173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44442</v>
       </c>
@@ -1128,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44443</v>
       </c>
@@ -1137,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44444</v>
       </c>
@@ -1146,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44445</v>
       </c>
@@ -1166,7 +1220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44446</v>
       </c>
@@ -1180,7 +1234,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44447</v>
       </c>
@@ -1197,7 +1251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44448</v>
       </c>
@@ -1220,7 +1274,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44449</v>
       </c>
@@ -1237,7 +1291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44450</v>
       </c>
@@ -1254,7 +1308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44451</v>
       </c>
@@ -1274,7 +1328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44452</v>
       </c>
@@ -1291,7 +1345,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44453</v>
       </c>
@@ -1308,7 +1362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44454</v>
       </c>
@@ -1518,18 +1572,30 @@
         <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44466</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28">
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -15983,10 +16049,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16311,22 +16377,22 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="18">
         <v>2018</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="19">
         <v>10</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -16628,6 +16694,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49761DA4-85CA-463A-809D-5E0CD64604B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35336E8-72E5-4866-9C81-0156A6850A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="218">
   <si>
     <t>Date</t>
   </si>
@@ -693,6 +693,18 @@
   </si>
   <si>
     <t>SAR for HAZARD: Module 3 Lab; GEOPH QUIZ</t>
+  </si>
+  <si>
+    <t>29/1833</t>
+  </si>
+  <si>
+    <t>I started reading (Estimating Snow Depth Using Multi-Source Data Fusion Based on the D-InSAR Method and 3DVAR Fusion Algorithm)</t>
+  </si>
+  <si>
+    <t>FIQ-Module10</t>
+  </si>
+  <si>
+    <t>SAR for HAZARD: Module</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1127,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,12 +1610,24 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44467</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -16049,10 +16073,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35336E8-72E5-4866-9C81-0156A6850A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE532A2-1382-4C95-B8CB-F89C67A0525F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -704,7 +704,34 @@
     <t>FIQ-Module10</t>
   </si>
   <si>
-    <t>SAR for HAZARD: Module</t>
+    <t>SAR for HAZARD: 4.1.1; GEOPH QUIZ</t>
+  </si>
+  <si>
+    <t>30/1833</t>
+  </si>
+  <si>
+    <t>I finished reading (Estimating Snow Depth Using Multi-Source Data Fusion Based on the D-InSAR Method and 3DVAR Fusion Algorithm)</t>
+  </si>
+  <si>
+    <t>GEOPH QUIZ</t>
+  </si>
+  <si>
+    <t>31/1833</t>
+  </si>
+  <si>
+    <t>32/1833</t>
+  </si>
+  <si>
+    <t>33/1833</t>
+  </si>
+  <si>
+    <t>SAR HAZARD: 4.1.1-4.5</t>
+  </si>
+  <si>
+    <t>FIQ_Module11</t>
+  </si>
+  <si>
+    <t>I read (Mapping Snow Depth From Ka-Band Interferometry: Proof of Concept and Comparison With Scanning Lidar Retrievals)</t>
   </si>
 </sst>
 </file>
@@ -1123,11 +1150,11 @@
   <dimension ref="A1:H1833"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E38:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1165,7 @@
     <col min="4" max="4" width="19.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="50.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1630,12 +1657,21 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44468</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,6 +1681,12 @@
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1653,16 +1695,34 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44471</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44472</v>
       </c>
@@ -1670,7 +1730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44473</v>
       </c>
@@ -1678,7 +1738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44474</v>
       </c>
@@ -1686,7 +1746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44475</v>
       </c>
@@ -1694,7 +1754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44476</v>
       </c>
@@ -1702,7 +1762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44477</v>
       </c>
@@ -1710,7 +1770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44478</v>
       </c>
@@ -1718,7 +1778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44479</v>
       </c>
@@ -1726,7 +1786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44480</v>
       </c>
@@ -1734,7 +1794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44481</v>
       </c>
@@ -1742,7 +1802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44482</v>
       </c>
@@ -1750,7 +1810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44483</v>
       </c>
@@ -1758,7 +1818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44484</v>
       </c>
@@ -1766,7 +1826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44485</v>
       </c>
@@ -1774,7 +1834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44486</v>
       </c>
@@ -16073,10 +16133,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE532A2-1382-4C95-B8CB-F89C67A0525F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE54BC82-AC1D-4AD0-BFDD-4BA6A6CDC49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="229">
   <si>
     <t>Date</t>
   </si>
@@ -732,6 +732,12 @@
   </si>
   <si>
     <t>I read (Mapping Snow Depth From Ka-Band Interferometry: Proof of Concept and Comparison With Scanning Lidar Retrievals)</t>
+  </si>
+  <si>
+    <t>I read (Pol-InSAR based Snow Depth Retrieval using Spaceborne TerraSAR-X data*)</t>
+  </si>
+  <si>
+    <t>SAR HAZARD:5.1</t>
   </si>
 </sst>
 </file>
@@ -1150,11 +1156,11 @@
   <dimension ref="A1:H1833"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E38:E40"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,12 +1728,18 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44472</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -16133,10 +16145,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PhD\DhP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE54BC82-AC1D-4AD0-BFDD-4BA6A6CDC49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7718E9A-C49D-4A70-842F-94EF4E7058FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="238">
   <si>
     <t>Date</t>
   </si>
@@ -739,12 +739,39 @@
   <si>
     <t>SAR HAZARD:5.1</t>
   </si>
+  <si>
+    <t>The Beas River Basin Manali Town India</t>
+  </si>
+  <si>
+    <t>Manaz River Bazin</t>
+  </si>
+  <si>
+    <t>I read (Estimating Snow Depth and Snow Water Equivalence Using Repeat-Pass Interferometric SAR in the Northern Piedmont Region of the Tianshan Mountains)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Li (2017) </t>
+  </si>
+  <si>
+    <t>Leins (2015)</t>
+  </si>
+  <si>
+    <t>34/1833</t>
+  </si>
+  <si>
+    <t>35/1833</t>
+  </si>
+  <si>
+    <t>36/1833</t>
+  </si>
+  <si>
+    <t>ARB_Module1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +802,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -836,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -873,6 +908,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,7 +1196,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,6 +1771,9 @@
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C34" t="s">
+        <v>234</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>227</v>
       </c>
@@ -1742,12 +1781,24 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44473</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,6 +1807,12 @@
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -16145,10 +16202,10 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16568,7 +16625,6 @@
       <c r="E14" s="7">
         <v>0</v>
       </c>
-      <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -16585,7 +16641,9 @@
         <v>62</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="13" t="s">
+        <v>229</v>
+      </c>
       <c r="G15" s="16" t="s">
         <v>121</v>
       </c>
@@ -16612,7 +16670,9 @@
       <c r="E16" s="7">
         <v>14</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="G16" s="13" t="s">
         <v>121</v>
       </c>
@@ -16639,7 +16699,9 @@
       <c r="E17" s="10">
         <v>2</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="G17" s="16" t="s">
         <v>121</v>
       </c>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7718E9A-C49D-4A70-842F-94EF4E7058FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD967B49-4876-4919-8567-38B2AFF43ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="244">
   <si>
     <t>Date</t>
   </si>
@@ -766,12 +766,30 @@
   <si>
     <t>ARB_Module1</t>
   </si>
+  <si>
+    <t>Snow Depth and SWE Estimation using Spaceborne Polarimetric and Interferometric Synthetic Aperture Radar</t>
+  </si>
+  <si>
+    <t>Sayantan</t>
+  </si>
+  <si>
+    <t>Estimation of snow water equivalent from L-band radar interferometry: simulation and experiment</t>
+  </si>
+  <si>
+    <t>Dmitriev</t>
+  </si>
+  <si>
+    <t>I read (Snow Water Equivalent of Dry Snow Measured by Differential Interferometry)</t>
+  </si>
+  <si>
+    <t>ARB_Module2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +828,31 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -868,10 +911,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -909,8 +953,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1196,7 +1245,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1850,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44474</v>
       </c>
@@ -1813,6 +1862,12 @@
       </c>
       <c r="D36" s="2" t="s">
         <v>233</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -16199,13 +16254,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3A1FA6-ADBF-4620-9700-1646947406D5}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16465,394 +16520,426 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>2019</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>11</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="11" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>2018</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="19">
-        <v>10</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="7">
-        <v>8</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>128</v>
+      <c r="H12" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="A13" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="19">
         <v>10</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="F13" s="21"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2017</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2017</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13" t="s">
-        <v>229</v>
+        <v>56</v>
+      </c>
+      <c r="E15" s="10">
+        <v>10</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H15" t="s">
-        <v>88</v>
+      <c r="H15" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2017</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="E16" s="7">
-        <v>14</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>230</v>
+        <v>62</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7">
-        <v>48</v>
-      </c>
-      <c r="F18" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="G18" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="7">
+        <v>48</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>2014</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E21" s="10">
         <v>5</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E22" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E23" s="10">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E24" s="7">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
+    <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="10">
+        <v>72</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="7">
+        <v>209</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" display="https://www.researchgate.net/publication/333419930_Snow_Depth_and_SWE_Estimation_using_Spaceborne_Polarimetric_and_Interferometric_Synthetic_Aperture_Radar" xr:uid="{4B41D3C9-861F-4972-906E-EAAC9F3C1F85}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2391CFD5-0522-47F3-82D6-45300CCBF12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B20A430-9895-4896-828B-F53A8B17F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="256">
   <si>
     <t>Date</t>
   </si>
@@ -807,6 +807,18 @@
   </si>
   <si>
     <t>ARB_Module_3</t>
+  </si>
+  <si>
+    <t>41/1833</t>
+  </si>
+  <si>
+    <t>42/1833</t>
+  </si>
+  <si>
+    <t>ARB_Module5</t>
+  </si>
+  <si>
+    <t>GEOPH-Khan</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1281,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,6 +2032,12 @@
       <c r="C41" s="1">
         <v>44479</v>
       </c>
+      <c r="D41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2030,6 +2048,12 @@
       </c>
       <c r="C42" s="1">
         <v>44480</v>
+      </c>
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+      <c r="H42" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B20A430-9895-4896-828B-F53A8B17F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAA1741-E4D1-4DD2-A45F-74AEE10596B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="259">
   <si>
     <t>Date</t>
   </si>
@@ -819,6 +819,15 @@
   </si>
   <si>
     <t>GEOPH-Khan</t>
+  </si>
+  <si>
+    <t>43/1833</t>
+  </si>
+  <si>
+    <t>CMP-Module1,2,3</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1290,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,6 +2074,18 @@
       </c>
       <c r="C43" s="1">
         <v>44481</v>
+      </c>
+      <c r="D43" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" t="s">
+        <v>257</v>
+      </c>
+      <c r="H43" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAA1741-E4D1-4DD2-A45F-74AEE10596B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE470E-D2DE-496D-B8C0-E0C4550EB1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="SLR" sheetId="2" r:id="rId2"/>
-    <sheet name="Awasthi-Cross-reference" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Guinerissen-Cited" sheetId="5" r:id="rId3"/>
+    <sheet name="Awasthi-Cross-reference" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="267">
   <si>
     <t>Date</t>
   </si>
@@ -828,6 +829,30 @@
   </si>
   <si>
     <t>Kelvin</t>
+  </si>
+  <si>
+    <t>Estimation of Snow Cover Parameters by ALOS-2 PALSAR Interferometry</t>
+  </si>
+  <si>
+    <t>Recent advances in the remote sensing of alpine snow: a review</t>
+  </si>
+  <si>
+    <t>The Effects of Dry Snow on the SAR Impulse Response and Feasibility for Single Channel Snow Water Equivalent Estimation</t>
+  </si>
+  <si>
+    <t>Snow Depth and Snow Water Equivalent Estimation in the Northwestern Himalayan Watershed using Spaceborne Polarimetric SAR Interferometry</t>
+  </si>
+  <si>
+    <t>Electromagnetic Modeling for Radar Remote Sensing of Snow-Covered Terrain</t>
+  </si>
+  <si>
+    <t>Mostafa Zaky</t>
+  </si>
+  <si>
+    <t>44/1833</t>
+  </si>
+  <si>
+    <t>CMP-Module4,5,6</t>
   </si>
 </sst>
 </file>
@@ -960,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1002,6 +1027,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1290,7 +1316,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2114,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44482</v>
       </c>
@@ -2097,6 +2123,18 @@
       </c>
       <c r="C44" s="1">
         <v>44482</v>
+      </c>
+      <c r="D44" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -21789,7 +21827,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
@@ -22476,14 +22514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A299D5-3039-472C-9430-4F80B5A7C47A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB26E862-BB81-4C78-8D3A-B6B138275549}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22549,44 +22587,41 @@
     </row>
     <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="7">
-        <v>5</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
+      <c r="G2" s="13"/>
       <c r="M2" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="9">
+        <v>2018</v>
+      </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="25" t="s">
+        <v>259</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6">
+        <v>2021</v>
+      </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="25" t="s">
+        <v>260</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
       <c r="F4" s="13"/>
@@ -22594,19 +22629,27 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9">
+        <v>2020</v>
+      </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="25" t="s">
+        <v>240</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="10"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2021</v>
+      </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="25" t="s">
+        <v>261</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
       <c r="F6" s="13"/>
@@ -22614,10 +22657,14 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2020</v>
+      </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
       <c r="F7" s="16"/>
@@ -22625,9 +22672,15 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>263</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="13"/>
@@ -22784,11 +22837,334 @@
       <c r="G24" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.researchgate.net/publication/333419930_Snow_Depth_and_SWE_Estimation_using_Spaceborne_Polarimetric_and_Interferometric_Synthetic_Aperture_Radar" xr:uid="{93A0FB7A-CCA6-432E-AB75-6B6ED71CAC77}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.researchgate.net/publication/327175125_Estimation_of_Snow_Cover_Parameters_by_ALOS-2_PALSAR_Interferometry" xr:uid="{012AC0C8-1461-450E-B173-BED3C66DBB23}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.researchgate.net/publication/353691986_Recent_advances_in_the_remote_sensing_of_alpine_snow_a_review" xr:uid="{635D357A-57B2-41C9-831D-3840615BAE15}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.researchgate.net/publication/344665975_Estimation_of_snow_water_equivalent_from_L-band_radar_interferometry_simulation_and_experiment" xr:uid="{F3B8709E-6051-46FB-9B28-17E15E0F8EBF}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.researchgate.net/publication/353201478_The_Effects_of_Dry_Snow_on_the_SAR_Impulse_Response_and_Feasibility_for_Single_Channel_Snow_Water_Equivalent_Estimation" xr:uid="{43636DB2-4A34-431F-A1FC-35B389046CD2}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.researchgate.net/publication/333966576_Snow_Depth_and_Snow_Water_Equivalent_Estimation_in_the_Northwestern_Himalayan_Watershed_using_Spaceborne_Polarimetric_SAR_Interferometry" xr:uid="{B4CFE5CB-061B-48FA-8C4C-C4CCF02A8A1E}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.researchgate.net/publication/352282664_Electromagnetic_Modeling_for_Radar_Remote_Sensing_of_Snow-Covered_Terrain" xr:uid="{F96F8724-4166-4897-81ED-DACDA6D0CF4E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A299D5-3039-472C-9430-4F80B5A7C47A}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="12" max="12" width="40" style="2" customWidth="1"/>
+    <col min="13" max="14" width="21.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBBC754-708F-4376-88C7-1785F0760BEF}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE470E-D2DE-496D-B8C0-E0C4550EB1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F658D3B-9873-46AF-A80B-FBB2C90F027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="274">
   <si>
     <t>Date</t>
   </si>
@@ -853,6 +853,27 @@
   </si>
   <si>
     <t>CMP-Module4,5,6</t>
+  </si>
+  <si>
+    <t>Field-Work; Install GPS base station</t>
+  </si>
+  <si>
+    <t>CMP-Module7</t>
+  </si>
+  <si>
+    <t>45/1833</t>
+  </si>
+  <si>
+    <t>46/1833</t>
+  </si>
+  <si>
+    <t>45.79 (foods); 300 (Ajarat's phone and others)</t>
+  </si>
+  <si>
+    <t>CMP-Module8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>Vector Calculus</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1337,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,6 +2168,15 @@
       <c r="C45" s="1">
         <v>44483</v>
       </c>
+      <c r="D45" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -2157,6 +2187,18 @@
       </c>
       <c r="C46" s="1">
         <v>44484</v>
+      </c>
+      <c r="D46" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" t="s">
+        <v>272</v>
+      </c>
+      <c r="H46" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F658D3B-9873-46AF-A80B-FBB2C90F027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569706F7-F639-44FE-AEAB-91B26D690BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="278">
   <si>
     <t>Date</t>
   </si>
@@ -874,6 +874,18 @@
   </si>
   <si>
     <t>Vector Calculus</t>
+  </si>
+  <si>
+    <t>Create uavsar-analysis environment on naheemadebisi@kelvin; mkdir my-uavsar; Install python packages (earth data science environemt.yml)conda  on the environemnt; Finally use ssh tunnelling -&gt; ssh -N -f -L localhost:8889:localhost8890 naheeemadebisi@kelvin.boisestate.edu. Change the address of the jupyter notebook to 8889</t>
+  </si>
+  <si>
+    <t>Get Bosise data into kelvin/ Download data from ASF into kelvin</t>
+  </si>
+  <si>
+    <t>CMP14,15</t>
+  </si>
+  <si>
+    <t>710(housing)</t>
   </si>
 </sst>
 </file>
@@ -1333,11 +1345,11 @@
   <dimension ref="A1:I1833"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2213,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44485</v>
       </c>
@@ -2210,6 +2222,12 @@
       </c>
       <c r="C47" s="1">
         <v>44485</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2222,8 +2240,11 @@
       <c r="C48" s="1">
         <v>44486</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44487</v>
       </c>
@@ -2233,8 +2254,14 @@
       <c r="C49" s="1">
         <v>44487</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44488</v>
       </c>
@@ -2244,8 +2271,11 @@
       <c r="C50" s="1">
         <v>44488</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44489</v>
       </c>
@@ -2256,7 +2286,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44490</v>
       </c>
@@ -2267,7 +2297,7 @@
         <v>44490</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44491</v>
       </c>
@@ -2278,7 +2308,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44492</v>
       </c>
@@ -2289,7 +2319,7 @@
         <v>44492</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44493</v>
       </c>
@@ -2300,7 +2330,7 @@
         <v>44493</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44494</v>
       </c>
@@ -2311,7 +2341,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44495</v>
       </c>
@@ -2322,7 +2352,7 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44496</v>
       </c>
@@ -2333,7 +2363,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44497</v>
       </c>
@@ -2344,7 +2374,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44498</v>
       </c>
@@ -2355,7 +2385,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44499</v>
       </c>
@@ -2366,7 +2396,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44500</v>
       </c>
@@ -2377,7 +2407,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44501</v>
       </c>
@@ -2388,7 +2418,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44502</v>
       </c>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772DC718-288E-430D-B32D-B8AF087A92F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FF59E1-8668-41C1-8556-73DA75827FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="247">
   <si>
     <t>Date</t>
   </si>
@@ -784,6 +784,15 @@
   </si>
   <si>
     <t>60/1833</t>
+  </si>
+  <si>
+    <t>100 (lolade); 14.48 (Groceries)</t>
+  </si>
+  <si>
+    <t>I preprocessed UASAR</t>
+  </si>
+  <si>
+    <t>Snow hydrology</t>
   </si>
 </sst>
 </file>
@@ -1243,11 +1252,11 @@
   <dimension ref="A1:I1834"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,6 +2317,15 @@
       </c>
       <c r="C54" s="1">
         <v>44491</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54" t="s">
+        <v>246</v>
+      </c>
+      <c r="I54" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FF59E1-8668-41C1-8556-73DA75827FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4E92D-C218-4B3B-95EB-83BF19E85537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="251">
   <si>
     <t>Date</t>
   </si>
@@ -793,6 +793,18 @@
   </si>
   <si>
     <t>Snow hydrology</t>
+  </si>
+  <si>
+    <t>61/1833</t>
+  </si>
+  <si>
+    <t>TAJ-Module1</t>
+  </si>
+  <si>
+    <t>62/1833</t>
+  </si>
+  <si>
+    <t>Snow hydrology; Geoph; Edx5.2</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1268,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,6 +2330,9 @@
       <c r="C54" s="1">
         <v>44491</v>
       </c>
+      <c r="D54" t="s">
+        <v>247</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>245</v>
       </c>
@@ -2337,6 +2352,15 @@
       </c>
       <c r="C55" s="1">
         <v>44492</v>
+      </c>
+      <c r="D55" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" t="s">
+        <v>248</v>
+      </c>
+      <c r="H55" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4E92D-C218-4B3B-95EB-83BF19E85537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB50B6B-A8D9-48DD-AB06-794535D70F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="269">
   <si>
     <t>Date</t>
   </si>
@@ -420,9 +420,6 @@
   </si>
   <si>
     <t>Repeat Pass InSAR</t>
-  </si>
-  <si>
-    <t>Tandem</t>
   </si>
   <si>
     <t>Scan other articles to Guneriussen</t>
@@ -741,9 +738,6 @@
     <t>Vector Calculus</t>
   </si>
   <si>
-    <t>Create uavsar-analysis environment on naheemadebisi@kelvin; mkdir my-uavsar; Install python packages (earth data science environemt.yml)conda  on the environemnt; Finally use ssh tunnelling -&gt; ssh -N -f -L localhost:8889:localhost8890 naheeemadebisi@kelvin.boisestate.edu. Change the address of the jupyter notebook to 8889</t>
-  </si>
-  <si>
     <t>CMP14,15</t>
   </si>
   <si>
@@ -805,6 +799,66 @@
   </si>
   <si>
     <t>Snow hydrology; Geoph; Edx5.2</t>
+  </si>
+  <si>
+    <t>63/1833</t>
+  </si>
+  <si>
+    <t>Snow hydrology; Geoph; Edx5.3</t>
+  </si>
+  <si>
+    <t>Copernicus; GEE; Overview Figure</t>
+  </si>
+  <si>
+    <t>Satelite Data</t>
+  </si>
+  <si>
+    <t>Tandem-X (ERS-1/2)</t>
+  </si>
+  <si>
+    <t>AIRSAR</t>
+  </si>
+  <si>
+    <t>Deeb</t>
+  </si>
+  <si>
+    <t>ERS-1</t>
+  </si>
+  <si>
+    <t>Lynx (Ku)</t>
+  </si>
+  <si>
+    <t>Create uavsar-analysis environment on naheemadebisi@kelvin; mkdir my-uavsar; Install python packages (earth data science environemt.yml)conda  on the environemnt; Finally use ssh tunnelling -&gt; ssh -N -f -L localhost:8889:localhost:8890 naheeemadebisi@kelvin.boisestate.edu. Change the address of the jupyter notebook to 8889</t>
+  </si>
+  <si>
+    <t>64/1833</t>
+  </si>
+  <si>
+    <t>65/1833</t>
+  </si>
+  <si>
+    <t>VV Unwraped Phase change for Reynold Creeks</t>
+  </si>
+  <si>
+    <t>Correlate with Lidar</t>
+  </si>
+  <si>
+    <t>Geoph</t>
+  </si>
+  <si>
+    <t>Geog</t>
+  </si>
+  <si>
+    <t>66/1833</t>
+  </si>
+  <si>
+    <t>67/1833</t>
+  </si>
+  <si>
+    <t>68/1833</t>
+  </si>
+  <si>
+    <t>69/1833</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1322,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,12 +1362,12 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1516,13 +1570,13 @@
         <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" t="s">
         <v>131</v>
-      </c>
-      <c r="G14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1539,10 +1593,10 @@
         <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1559,10 +1613,10 @@
         <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1579,7 +1633,7 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1596,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1613,7 +1667,7 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1630,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1647,10 +1701,10 @@
         <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1667,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" t="s">
         <v>157</v>
-      </c>
-      <c r="H22" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1690,13 +1744,13 @@
         <v>30</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1713,13 +1767,13 @@
         <v>31</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" t="s">
         <v>166</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>167</v>
-      </c>
-      <c r="H24" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1736,13 +1790,13 @@
         <v>32</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" t="s">
         <v>169</v>
-      </c>
-      <c r="H25" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1759,13 +1813,13 @@
         <v>33</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" t="s">
         <v>172</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>173</v>
-      </c>
-      <c r="H26" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1782,13 +1836,13 @@
         <v>34</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" t="s">
         <v>175</v>
-      </c>
-      <c r="H27" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1805,13 +1859,13 @@
         <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
         <v>180</v>
       </c>
-      <c r="G28" t="s">
-        <v>181</v>
-      </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1828,13 +1882,13 @@
         <v>36</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I29">
         <v>9.7200000000000006</v>
@@ -1854,13 +1908,13 @@
         <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" t="s">
         <v>187</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>188</v>
-      </c>
-      <c r="H30" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1877,10 +1931,10 @@
         <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" t="s">
         <v>190</v>
-      </c>
-      <c r="H31" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,7 +1951,7 @@
         <v>39</v>
       </c>
       <c r="H32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1914,7 +1968,7 @@
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I33">
         <v>23</v>
@@ -1934,10 +1988,10 @@
         <v>41</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1954,10 +2008,10 @@
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H35" t="s">
         <v>195</v>
-      </c>
-      <c r="H35" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1974,13 +2028,13 @@
         <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1997,13 +2051,13 @@
         <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" t="s">
         <v>207</v>
-      </c>
-      <c r="G37" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2020,13 +2074,13 @@
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H38" t="s">
         <v>102</v>
       </c>
       <c r="I38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2043,10 +2097,10 @@
         <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2063,7 +2117,7 @@
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I40">
         <v>29</v>
@@ -2083,7 +2137,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2100,7 +2154,7 @@
         <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2117,7 +2171,7 @@
         <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2134,13 +2188,13 @@
         <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2157,13 +2211,13 @@
         <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2180,10 +2234,10 @@
         <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" t="s">
         <v>224</v>
-      </c>
-      <c r="G46" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2197,16 +2251,16 @@
         <v>44484</v>
       </c>
       <c r="D47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H47" t="s">
         <v>227</v>
       </c>
-      <c r="H47" t="s">
-        <v>228</v>
-      </c>
       <c r="I47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -2220,13 +2274,13 @@
         <v>44485</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2240,10 +2294,10 @@
         <v>44486</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2257,13 +2311,13 @@
         <v>44487</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2277,13 +2331,13 @@
         <v>44488</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2297,7 +2351,7 @@
         <v>44489</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2311,13 +2365,13 @@
         <v>44490</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H53" t="s">
         <v>232</v>
-      </c>
-      <c r="H53" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2331,16 +2385,16 @@
         <v>44491</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2354,13 +2408,13 @@
         <v>44492</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G55" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55" t="s">
         <v>248</v>
-      </c>
-      <c r="H55" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2373,6 +2427,12 @@
       <c r="C56" s="1">
         <v>44493</v>
       </c>
+      <c r="D56" t="s">
+        <v>249</v>
+      </c>
+      <c r="H56" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -2384,6 +2444,15 @@
       <c r="C57" s="1">
         <v>44494</v>
       </c>
+      <c r="D57" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -2395,6 +2464,15 @@
       <c r="C58" s="1">
         <v>44495</v>
       </c>
+      <c r="D58" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H58" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -2406,6 +2484,15 @@
       <c r="C59" s="1">
         <v>44496</v>
       </c>
+      <c r="D59" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -2417,6 +2504,12 @@
       <c r="C60" s="1">
         <v>44497</v>
       </c>
+      <c r="D60" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -2428,6 +2521,12 @@
       <c r="C61" s="1">
         <v>44498</v>
       </c>
+      <c r="D61" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2439,6 +2538,12 @@
       <c r="C62" s="1">
         <v>44499</v>
       </c>
+      <c r="D62" t="s">
+        <v>268</v>
+      </c>
+      <c r="H62" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2594,7 +2699,7 @@
         <v>44513</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2608,7 +2713,7 @@
         <v>44514</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,7 +2727,7 @@
         <v>44515</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,7 +2741,7 @@
         <v>44516</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,7 +2755,7 @@
         <v>44517</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -21955,13 +22060,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3A1FA6-ADBF-4620-9700-1646947406D5}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21971,14 +22076,14 @@
     <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="12" max="12" width="40" style="2" customWidth="1"/>
-    <col min="13" max="14" width="21.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="13" max="13" width="40" style="2" customWidth="1"/>
+    <col min="14" max="15" width="21.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -22001,31 +22106,34 @@
         <v>93</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2020</v>
       </c>
@@ -22039,8 +22147,9 @@
       <c r="E2" s="7"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2011</v>
       </c>
@@ -22056,8 +22165,9 @@
       <c r="E3" s="10"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2021</v>
       </c>
@@ -22077,17 +22187,18 @@
       <c r="G4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2021</v>
       </c>
@@ -22109,20 +22220,21 @@
       <c r="G5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2021</v>
       </c>
@@ -22144,17 +22256,18 @@
       <c r="G6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="J6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2020</v>
       </c>
@@ -22176,23 +22289,24 @@
       <c r="G7" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>165</v>
-      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" t="s">
         <v>163</v>
       </c>
-      <c r="O7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2020</v>
       </c>
@@ -22214,27 +22328,29 @@
       <c r="G8" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="H8" s="13"/>
+      <c r="N8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2019</v>
       </c>
@@ -22256,26 +22372,27 @@
       <c r="G10" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O10" s="2" t="s">
+      <c r="N10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10"/>
@@ -22283,9 +22400,10 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="J11" s="16"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
@@ -22307,14 +22425,15 @@
       <c r="G12" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2018</v>
       </c>
@@ -22332,8 +22451,9 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2017</v>
       </c>
@@ -22355,17 +22475,18 @@
       <c r="G14" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2017</v>
       </c>
@@ -22387,14 +22508,15 @@
       <c r="G15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2017</v>
       </c>
@@ -22411,8 +22533,9 @@
         <v>0</v>
       </c>
       <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2017</v>
       </c>
@@ -22427,19 +22550,20 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2017</v>
       </c>
@@ -22456,19 +22580,20 @@
         <v>14</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2016</v>
       </c>
@@ -22485,19 +22610,20 @@
         <v>2</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" t="s">
         <v>128</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
@@ -22517,8 +22643,9 @@
       <c r="G20" s="13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2014</v>
       </c>
@@ -22536,8 +22663,11 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -22555,85 +22685,113 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="H22" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>2010</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>2</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>2004</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>18</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>2001</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>72</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>2001</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="7">
         <v>209</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -22649,16 +22807,16 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
@@ -22704,13 +22862,13 @@
         <v>86</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>89</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>91</v>
@@ -22722,14 +22880,14 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="M2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -22738,7 +22896,7 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -22751,7 +22909,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
@@ -22765,7 +22923,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="10"/>
@@ -22779,7 +22937,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
@@ -22794,7 +22952,7 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
@@ -22807,10 +22965,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
@@ -23042,13 +23200,13 @@
         <v>86</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>89</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>91</v>
@@ -23059,26 +23217,26 @@
         <v>2020</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="E2" s="7">
         <v>5</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s">
         <v>144</v>
       </c>
-      <c r="H2" t="s">
-        <v>145</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB50B6B-A8D9-48DD-AB06-794535D70F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AAB5F3-83F0-438E-B36F-C25059890C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="271">
   <si>
     <t>Date</t>
   </si>
@@ -859,6 +859,12 @@
   </si>
   <si>
     <t>69/1833</t>
+  </si>
+  <si>
+    <t>GEOS, CUAHSI</t>
+  </si>
+  <si>
+    <t>70/1833</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1328,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,6 +2560,12 @@
       </c>
       <c r="C63" s="1">
         <v>44500</v>
+      </c>
+      <c r="D63" t="s">
+        <v>270</v>
+      </c>
+      <c r="H63" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AAB5F3-83F0-438E-B36F-C25059890C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93FCDC1-2E6D-4B88-A0B1-CFB4CF2EEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,16 @@
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="SLR" sheetId="2" r:id="rId2"/>
     <sheet name="Guinerissen-Cited" sheetId="5" r:id="rId3"/>
-    <sheet name="Awasthi-Cross-reference" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="Band" sheetId="8" r:id="rId4"/>
+    <sheet name="Satellite" sheetId="9" r:id="rId5"/>
+    <sheet name="Awasthi-Cross-reference" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="32" r:id="rId8"/>
+    <pivotCache cacheId="53" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="282">
   <si>
     <t>Date</t>
   </si>
@@ -94,12 +100,6 @@
     <t>Times cited</t>
   </si>
   <si>
-    <t>H.P Marshall</t>
-  </si>
-  <si>
-    <t>L-BAND INSAR DEPTH RETRIEVAL DURING THE NASA SNOWEX 2020 CAMPAIGN: GRAND MESA, COLORADO</t>
-  </si>
-  <si>
     <t>ELIAS J. DEEB*†‡, RICHARD R. FORSTER‡ and DOUGLAS L. KANE</t>
   </si>
   <si>
@@ -277,9 +277,6 @@
     <t>GEOPHYSICAL RESEARCH LETTERS</t>
   </si>
   <si>
-    <t>TerraSAR-X</t>
-  </si>
-  <si>
     <t>Satellite Data</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
   </si>
   <si>
     <t>Xinjiang, China</t>
-  </si>
-  <si>
-    <t>Sentinel 1A</t>
   </si>
   <si>
     <t xml:space="preserve">D-InSAR inversion of snow deoth and Data Assimilation to Improve spatial and temporal resolution by </t>
@@ -410,15 +404,9 @@
     <t>Sierra Nevada</t>
   </si>
   <si>
-    <t>GLISTIN (ka-band); Airborne</t>
-  </si>
-  <si>
     <t>PolInSAR</t>
   </si>
   <si>
-    <t>Envisat ASAR IMS data</t>
-  </si>
-  <si>
     <t>Repeat Pass InSAR</t>
   </si>
   <si>
@@ -446,9 +434,6 @@
     <t>Development of Polarimetric SAR Interferometric based modelling approach for snow-depth estimation using TerraSAR-X/TanDEM-X datasets acquired in the pursuit monostatic mode with almost zero temporal baseline (10secs)</t>
   </si>
   <si>
-    <t>TanDEM-X/TerraSAR-X: Two pursiut monostatic mode pairs of 21 January 2015 &amp; 22 January 2015</t>
-  </si>
-  <si>
     <t>Akhsay Patil</t>
   </si>
   <si>
@@ -524,9 +509,6 @@
     <t xml:space="preserve">Snow pertimitivity to improve the estimation of snowpack displacement </t>
   </si>
   <si>
-    <t>Sentinel 1; Landsat 8 for snow cover Area</t>
-  </si>
-  <si>
     <t>I read (Estimation of Snow Depth in the Hindu Kush Himalayas of Afghanistan during Peak Winter and Early Melt Season)</t>
   </si>
   <si>
@@ -564,9 +546,6 @@
   </si>
   <si>
     <t>I read (On The Estimation of Temporal Changes of Snow Water Equivalent by Spaceborne Sar Interferometry: A New Application for the Sentinel-1 Mission)</t>
-  </si>
-  <si>
-    <t>TANDEM-X; ascending mode</t>
   </si>
   <si>
     <t>I read (WET SNOW DEPTH FROM TANDEM-X SINGLE-PASS INSAR DEM DIFFERENCING*)</t>
@@ -813,21 +792,12 @@
     <t>Satelite Data</t>
   </si>
   <si>
-    <t>Tandem-X (ERS-1/2)</t>
-  </si>
-  <si>
-    <t>AIRSAR</t>
-  </si>
-  <si>
     <t>Deeb</t>
   </si>
   <si>
     <t>ERS-1</t>
   </si>
   <si>
-    <t>Lynx (Ku)</t>
-  </si>
-  <si>
     <t>Create uavsar-analysis environment on naheemadebisi@kelvin; mkdir my-uavsar; Install python packages (earth data science environemt.yml)conda  on the environemnt; Finally use ssh tunnelling -&gt; ssh -N -f -L localhost:8889:localhost:8890 naheeemadebisi@kelvin.boisestate.edu. Change the address of the jupyter notebook to 8889</t>
   </si>
   <si>
@@ -865,6 +835,75 @@
   </si>
   <si>
     <t>70/1833</t>
+  </si>
+  <si>
+    <t>CUAHSI, GEOS</t>
+  </si>
+  <si>
+    <t>71/1833</t>
+  </si>
+  <si>
+    <t>Envisat ASAR IMS</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ku</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>PALSAR, ALOS</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Count of Band</t>
+  </si>
+  <si>
+    <t>PALSAR/ALOS</t>
+  </si>
+  <si>
+    <t>TerraSAR-X/TanDEM-X</t>
+  </si>
+  <si>
+    <t>Lynx (Ku)*</t>
+  </si>
+  <si>
+    <t>AIRSAR*</t>
+  </si>
+  <si>
+    <t>SSI*</t>
+  </si>
+  <si>
+    <t>GLISTIN*</t>
+  </si>
+  <si>
+    <t>Count of Satelite Data</t>
+  </si>
+  <si>
+    <t>72/1833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelvin scp </t>
+  </si>
+  <si>
+    <t>TAJ-Module3</t>
+  </si>
+  <si>
+    <t>73/1833</t>
+  </si>
+  <si>
+    <t>GEO GRAD</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1040,6 +1079,8 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1056,6 +1097,3464 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Daily-Track.xlsx]Band!PivotTable19</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>InSAR for Snow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Depth/SWE: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count of Band used in the literature </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Band!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Band!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ka</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ku</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Band!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6F1-43F9-8A6E-13196CF7C320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1624152415"/>
+        <c:axId val="1624152831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1624152415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624152831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1624152831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624152415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Daily-Track.xlsx]Satellite!PivotTable32</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Satelite Mission</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Satellite!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Satellite!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>AIRSAR*</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Envisat ASAR IMS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERS-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GLISTIN*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lynx (Ku)*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PALSAR, ALOS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PALSAR/ALOS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sentinel 1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SSI*</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TerraSAR-X/TanDEM-X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Satellite!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-568B-4CAA-951D-366A2FE2FA86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1615169615"/>
+        <c:axId val="1615187503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1615169615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615187503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1615187503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615169615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529C87B1-9801-46A4-BEF4-89F2A6535125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1271587</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37006E86-56E3-4E48-99D0-EE42731F5DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44502.352514814818" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{6C24B3B2-0DFC-4647-A88A-2776F016F922}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:P27" sheet="SLR"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2001" maxValue="2021"/>
+    </cacheField>
+    <cacheField name="Author" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Title " numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Journal" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Times cited" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="209"/>
+    </cacheField>
+    <cacheField name="Study Area" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Property" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Satelite Data" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Band" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="C"/>
+        <s v="X"/>
+        <m/>
+        <s v="L"/>
+        <s v="Ka"/>
+        <s v="Ku"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="In-situ" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Lidar" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Airborne" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Motivation" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Focus" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Terms" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Takeaway" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44502.367602314815" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{58D2B3AF-E2E5-46F4-A153-DC2E7FF7DAEE}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:P27" sheet="SLR"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2001" maxValue="2021"/>
+    </cacheField>
+    <cacheField name="Author" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Title " numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Journal" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Times cited" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="209"/>
+    </cacheField>
+    <cacheField name="Study Area" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Property" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Satelite Data" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <s v="ERS-1"/>
+        <s v="TerraSAR-X/TanDEM-X"/>
+        <s v="Sentinel 1"/>
+        <m/>
+        <s v="PALSAR/ALOS"/>
+        <s v="PALSAR, ALOS"/>
+        <s v="GLISTIN*"/>
+        <s v="Envisat ASAR IMS"/>
+        <s v="SSI*"/>
+        <s v="Lynx (Ku)*"/>
+        <s v="AIRSAR*"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Band" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="In-situ" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Lidar" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Airborne" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Motivation" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Focus" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Terms" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Takeaway" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+  <r>
+    <n v="2011"/>
+    <s v="ELIAS J. DEEB*†‡, RICHARD R. FORSTER‡ and DOUGLAS L. KANE"/>
+    <s v="Monitoring snowpack evolution using interferometric synthetic aperture radar on the North Slope of Alaska, USA"/>
+    <s v="International Journal of Remote Sensing"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="ERS-1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2021"/>
+    <s v="Ahmet Tarık TORUN &amp; Semih EKERCİN "/>
+    <s v="Estimating snow density, depth, volume, and snow water equivalent with InSAR data in the Erciyes mountain/Turkey"/>
+    <s v="Arabian Journal of Geosciences"/>
+    <m/>
+    <s v="Mount Erciyes/Turkey"/>
+    <s v="SD,SDn, SV, SWE"/>
+    <s v="TerraSAR-X"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Using single polarization"/>
+    <m/>
+    <s v="Satisfactory result was obtained with single-polarization data"/>
+  </r>
+  <r>
+    <n v="2021"/>
+    <s v="Shubham Awasthi a , Shashi Kumar b , Praveen K Thakur c , Kamal Jain d , Ajeet Kumar e and Snehmanif"/>
+    <s v="Snow depth retrieval in North-Western Himalayan region using pursuit-monostatic TanDEM-X datasets applying polarimetric synthetic aperture radar interferometry based inversion Modelling"/>
+    <s v="International Journal of Remote Sensing"/>
+    <n v="1"/>
+    <s v="North-Western Himalaya region"/>
+    <s v="SD"/>
+    <s v="TanDEM-X/TerraSAR-X"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="PolSAR and InSAR have proven useful in estimating snow parameters. InSAR technique is based on interferometric phase information from repeat pass observation. However, loss of interferometric coherence is a major challenge in employing repeat-pass SAR interferometry due to large temporal gap between the repeat passes that result in temporal decorellation. So, there is need for a technique for snow parameter observation which can work with zero temporal baseline"/>
+    <s v="Development of Polarimetric SAR Interferometric based modelling approach for snow-depth estimation using TerraSAR-X/TanDEM-X datasets acquired in the pursuit monostatic mode with almost zero temporal baseline (10secs)"/>
+    <s v="PolInSAR based Coherence Amplitude inversion modelling"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2021"/>
+    <s v="Jinming Yang1 &amp; Chengzhi Li"/>
+    <s v="Assimilation of D-InSAR snow depth data by an ensemble Kalman filter"/>
+    <s v="Arabian Journal of Geosciences"/>
+    <n v="0"/>
+    <s v="Xinjiang, China"/>
+    <s v="SD"/>
+    <s v="Sentinel 1"/>
+    <x v="0"/>
+    <s v="ultrasonic probe and manual measurement"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="D-InSAR inversion of snow deoth and Data Assimilation to Improve spatial and temporal resolution by "/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2020"/>
+    <s v="Abdul Basir Mahmoodzada, Divyesh Varade"/>
+    <s v="Estimation of Snow Depth in the Hindu Kush Himalayas of Afghanistan during Peak Winter and Early Melt Season"/>
+    <s v="Remote Sensing"/>
+    <n v="4"/>
+    <s v="Hindu Kush Himalayas of Afghanistan"/>
+    <s v="SD"/>
+    <s v="Sentinel 1"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="analyzed the potential of Sentinel-1 dual polarimetric and interferometric_x000a_observations for the estimation of snow depth"/>
+    <s v="DInSAR"/>
+    <s v="Snow pertimitivity to improve the estimation of snowpack displacement "/>
+  </r>
+  <r>
+    <n v="2020"/>
+    <s v="Shadi Oveisgharan"/>
+    <s v="Evaluating the Preconditions of Two Remote Sensing SWE Retrieval Algorithms over the US"/>
+    <s v="Remote Sensing"/>
+    <n v="2"/>
+    <s v="US"/>
+    <s v="SWE"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Two major SWE retrieval algorithms"/>
+    <m/>
+    <s v="Many"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Dmitriev"/>
+    <s v="Estimation of snow water equivalent from L-band radar interferometry: simulation and experiment"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="SWE"/>
+    <s v="PALSAR, ALOS"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2019"/>
+    <s v="Vasco Conde,"/>
+    <s v="On The Estimation of Temporal Changes of Snow Water Equivalent by Spaceborne Sar Interferometry: A New Application for the Sentinel-1 Mission"/>
+    <s v="Journal of Hydrology and Hydromechanics"/>
+    <n v="11"/>
+    <s v="Finland"/>
+    <s v="SWE"/>
+    <s v="Sentinel 1"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="InSAR, modelled microwave phase delay"/>
+    <m/>
+    <s v="the proposed methodology could map SWE also over regions covered by shrubs or low vegetation."/>
+  </r>
+  <r>
+    <n v="2019"/>
+    <s v="Sayantan"/>
+    <s v="Snow Depth and SWE Estimation using Spaceborne Polarimetric and Interferometric Synthetic Aperture Radar"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="TerraSAR-X; Tandem-X"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <s v="Silvan Leinss(1), Oleg Antropov(2), Juho Vehvilainen ¨ (3), Juha Lemmetyinen(3), Irena Hajnsek(1,4), Jaan Praks(2"/>
+    <s v="WET SNOW DEPTH FROM TANDEM-X SINGLE-PASS INSAR DEM DIFFERENCING*"/>
+    <s v="IEEE International Geoscience and Remote Sensing Symposium (IGARSS)"/>
+    <n v="1"/>
+    <s v="Finland"/>
+    <s v="SWE"/>
+    <s v="TANDEM-X"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Single Pass InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <m/>
+    <s v="Estimation of Snow Cover Parameters by ALOS-2 PALSAR Interferometry"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="PALSAR, ALOS"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <s v="Yusuf Eshqi Molan 1,*OrcID,Jin-Woo Kim 1OrcID,Zhong Lu 1OrcID andPiyush Agram 2"/>
+    <s v="L-Band Temporal Coherence Assessment and Modeling Using Amplitude and Snow Depth over Interior Alaska"/>
+    <s v="Remote Sensing"/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Yang Liu 1,2OrcID,Lanhai Li 1,2,Jinming Yang 3,Xi Chen 1,2,* andJiansheng Hao 1,2"/>
+    <s v="Estimating Snow Depth Using Multi-Source Data Fusion Based on the D-InSAR Method and 3DVAR Fusion Algorithm"/>
+    <s v="Remote Sensing"/>
+    <n v="8"/>
+    <s v="Bayanbuoak Basin"/>
+    <s v="SWE"/>
+    <s v="Sentinel 1"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="D-InSAR; Data Fusion"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Delwyn Moller; Konstantinos M. Andreadis; Kat J. Bormann; Scott Hensley; Thomas H. Painter"/>
+    <s v="Mapping Snow Depth From Ka-Band Interferometry: Proof of Concept and Comparison With Scanning Lidar Retrievals"/>
+    <s v="IEEE GEOSCIENCE AND REMOTE SENSING LETTERS"/>
+    <n v="10"/>
+    <s v="Sierra Nevada"/>
+    <s v="SWE"/>
+    <s v="GLISTIN"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Single Pass InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Moller, D (Moller, Delwyn) 1Hensley, S (Hensley, Scott) 2Bormann, KJ (Bormann, Kat J.) 2Deems, J (Deems, Jeffrey) 3Andreadis, K (Andreadis, Konstantinos) 2"/>
+    <s v="MAPPING SNOW-DEPTH USING KA-BAND INSAR: CALIBRATION AND VALIDATION DURING SNOWEX*"/>
+    <s v="IEEE International Symposium on Geoscience and Remote Sensing IGARSS"/>
+    <n v="0"/>
+    <m/>
+    <s v="SD"/>
+    <s v="GLISTIN"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Awasthi, S (Awasthi, Shubham) 1Kumar, S (Kumar, Shashi) 1Thakur, PK (Thakur, Praveen K.) 2Mani, S (Mani, Sneh) 3"/>
+    <s v="Pol-InSAR based Snow Depth Retrieval using Spaceborne TerraSAR-X data*"/>
+    <s v="International Conference on Computing, Communication and Networking Technologies (ICCCNT)"/>
+    <m/>
+    <s v="The Beas River Basin Manali Town India"/>
+    <s v="SWE"/>
+    <s v="TerraSAR-X"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="PolInSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Hui Li,1 Zuo Wang,2 Guangjun He,3 and Wang Man1"/>
+    <s v="Estimating Snow Depth and Snow Water Equivalence Using Repeat-Pass Interferometric SAR in the Northern Piedmont Region of the Tianshan Mountains"/>
+    <s v="Journal of Sensors"/>
+    <n v="14"/>
+    <s v="Manaz River Bazin"/>
+    <s v="SD"/>
+    <s v="Envisat ASAR IMS"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <s v="Li, H (Li Hui) 1, 2Xiao, PF (Xiao Pengfeng) 2Feng, XZ (Feng Xuezhi) 2He, GJ (He Guangjun) 2, 3Wang, Z (Wang Zuo)"/>
+    <s v="Monitoring Snow Depth And Its Change Using Repeat-Pass Interferometric SAR In Manas River Basin"/>
+    <s v="IEEE International Symposium on Geoscience and Remote Sensing IGARSS"/>
+    <n v="2"/>
+    <s v="Manaz River Bazin"/>
+    <s v="SD"/>
+    <s v="Envisat ASAR IMS"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Repeat Pass InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <s v="Silvan Leinss, Student Member, IEEE, Andreas Wiesmann, Senior Member, IEEE, Juha Lemmetyinen, and Irena Hajnsek, Fellow, IEEE"/>
+    <s v="Snow Water Equivalent of Dry Snow Measured by Differential Interferometry"/>
+    <s v="IEEE Journal of Selected Topics in Applied Earth Observations and Remote Sensing"/>
+    <n v="48"/>
+    <m/>
+    <s v="SWE"/>
+    <s v="SSI"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <s v="Evans, JR (Evans, Jack R.) 1Kruse, FA (Kruse, Fred A.)"/>
+    <s v="DETERMINATION OF SNOW DEPTH USING ELEVATION DIFFERENCES DETERMINED BY INTERFEROMETRIC SAR (INSAR)*"/>
+    <s v="IEEE Joint International Geoscience and Remote Sensing Symposium (IGARSS) / 35th Canadian Symposium on Remote Sensing"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <s v="Lynx (Ku)"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <s v="Evans, JR (Evans, J. R.) 1Kruse, FA (Kruse, F. A.) 2, 3Bickel, DL (Bickel, D. L.) 4Dunkel, R (Dunkel, Ralf) 5"/>
+    <s v="Determining snow depth using Ku-Band Interferometric Synthetic Aperture Radar (InSAR)*"/>
+    <s v="Proceedings of SPIE"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <s v="Lynx (Ku)"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2011"/>
+    <s v="Deeb"/>
+    <s v="Monitoring snowpack evolution using interferometric synthetic aperture radar on the North Slope of Alaska, USA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="ERS-1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2010"/>
+    <s v="A. Esmaeily-Gazkohani"/>
+    <s v="Repeat-pass cross-track interferometric SAR to measure dry snow water equivalent and depth"/>
+    <s v="Canadian Journal of Remote Sensing"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <s v="AIRSAR"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2004"/>
+    <s v="Geir Engen, Tore Guneriussen, and Øyvind Overrein"/>
+    <s v="Delta-K Interferometric SAR Technique for Snow Water Equivalent (SWE) Retrieval"/>
+    <s v="IEEE GEOSCIENCE AND REMOTE SENSING LETTERS"/>
+    <n v="18"/>
+    <m/>
+    <m/>
+    <s v="Tandem-X (ERS-1/2)"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <s v="Tore Guneriussen, Kjell Arild Høgda, Harald Johnsen, and Inge Lauknes"/>
+    <s v="InSAR for Estimation of Changes in Snow Water Equivalent of Dry Snow"/>
+    <s v="IEEE TRANSACTIONS ON GEOSCIENCE AND REMOTE SENSING"/>
+    <n v="72"/>
+    <m/>
+    <m/>
+    <s v="Tandem-X (ERS-1/2)"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <s v="Eric Rignot, Keith Echelmeyer, William Krabill"/>
+    <s v="Penetration depth of interferometric synthetic-aperture radar signals in snow and ice"/>
+    <s v="GEOPHYSICAL RESEARCH LETTERS"/>
+    <n v="209"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+  <r>
+    <n v="2011"/>
+    <s v="ELIAS J. DEEB*†‡, RICHARD R. FORSTER‡ and DOUGLAS L. KANE"/>
+    <s v="Monitoring snowpack evolution using interferometric synthetic aperture radar on the North Slope of Alaska, USA"/>
+    <s v="International Journal of Remote Sensing"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <s v="C"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2021"/>
+    <s v="Ahmet Tarık TORUN &amp; Semih EKERCİN "/>
+    <s v="Estimating snow density, depth, volume, and snow water equivalent with InSAR data in the Erciyes mountain/Turkey"/>
+    <s v="Arabian Journal of Geosciences"/>
+    <m/>
+    <s v="Mount Erciyes/Turkey"/>
+    <s v="SD,SDn, SV, SWE"/>
+    <x v="1"/>
+    <s v="X"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Using single polarization"/>
+    <m/>
+    <s v="Satisfactory result was obtained with single-polarization data"/>
+  </r>
+  <r>
+    <n v="2021"/>
+    <s v="Shubham Awasthi a , Shashi Kumar b , Praveen K Thakur c , Kamal Jain d , Ajeet Kumar e and Snehmanif"/>
+    <s v="Snow depth retrieval in North-Western Himalayan region using pursuit-monostatic TanDEM-X datasets applying polarimetric synthetic aperture radar interferometry based inversion Modelling"/>
+    <s v="International Journal of Remote Sensing"/>
+    <n v="1"/>
+    <s v="North-Western Himalaya region"/>
+    <s v="SD"/>
+    <x v="1"/>
+    <s v="X"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="PolSAR and InSAR have proven useful in estimating snow parameters. InSAR technique is based on interferometric phase information from repeat pass observation. However, loss of interferometric coherence is a major challenge in employing repeat-pass SAR interferometry due to large temporal gap between the repeat passes that result in temporal decorellation. So, there is need for a technique for snow parameter observation which can work with zero temporal baseline"/>
+    <s v="Development of Polarimetric SAR Interferometric based modelling approach for snow-depth estimation using TerraSAR-X/TanDEM-X datasets acquired in the pursuit monostatic mode with almost zero temporal baseline (10secs)"/>
+    <s v="PolInSAR based Coherence Amplitude inversion modelling"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2021"/>
+    <s v="Jinming Yang1 &amp; Chengzhi Li"/>
+    <s v="Assimilation of D-InSAR snow depth data by an ensemble Kalman filter"/>
+    <s v="Arabian Journal of Geosciences"/>
+    <n v="0"/>
+    <s v="Xinjiang, China"/>
+    <s v="SD"/>
+    <x v="2"/>
+    <s v="C"/>
+    <s v="ultrasonic probe and manual measurement"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="D-InSAR inversion of snow deoth and Data Assimilation to Improve spatial and temporal resolution by "/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2020"/>
+    <s v="Abdul Basir Mahmoodzada, Divyesh Varade"/>
+    <s v="Estimation of Snow Depth in the Hindu Kush Himalayas of Afghanistan during Peak Winter and Early Melt Season"/>
+    <s v="Remote Sensing"/>
+    <n v="4"/>
+    <s v="Hindu Kush Himalayas of Afghanistan"/>
+    <s v="SD"/>
+    <x v="2"/>
+    <s v="C"/>
+    <s v="Yes"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="analyzed the potential of Sentinel-1 dual polarimetric and interferometric_x000a_observations for the estimation of snow depth"/>
+    <s v="DInSAR"/>
+    <s v="Snow pertimitivity to improve the estimation of snowpack displacement "/>
+  </r>
+  <r>
+    <n v="2020"/>
+    <s v="Shadi Oveisgharan"/>
+    <s v="Evaluating the Preconditions of Two Remote Sensing SWE Retrieval Algorithms over the US"/>
+    <s v="Remote Sensing"/>
+    <n v="2"/>
+    <s v="US"/>
+    <s v="SWE"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Two major SWE retrieval algorithms"/>
+    <m/>
+    <s v="Many"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Dmitriev"/>
+    <s v="Estimation of snow water equivalent from L-band radar interferometry: simulation and experiment"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="SWE"/>
+    <x v="4"/>
+    <s v="L"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2019"/>
+    <s v="Vasco Conde,"/>
+    <s v="On The Estimation of Temporal Changes of Snow Water Equivalent by Spaceborne Sar Interferometry: A New Application for the Sentinel-1 Mission"/>
+    <s v="Journal of Hydrology and Hydromechanics"/>
+    <n v="11"/>
+    <s v="Finland"/>
+    <s v="SWE"/>
+    <x v="2"/>
+    <s v="C"/>
+    <s v="Yes"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="InSAR, modelled microwave phase delay"/>
+    <m/>
+    <s v="the proposed methodology could map SWE also over regions covered by shrubs or low vegetation."/>
+  </r>
+  <r>
+    <n v="2019"/>
+    <s v="Sayantan"/>
+    <s v="Snow Depth and SWE Estimation using Spaceborne Polarimetric and Interferometric Synthetic Aperture Radar"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="X"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <s v="Silvan Leinss(1), Oleg Antropov(2), Juho Vehvilainen ¨ (3), Juha Lemmetyinen(3), Irena Hajnsek(1,4), Jaan Praks(2"/>
+    <s v="WET SNOW DEPTH FROM TANDEM-X SINGLE-PASS INSAR DEM DIFFERENCING*"/>
+    <s v="IEEE International Geoscience and Remote Sensing Symposium (IGARSS)"/>
+    <n v="1"/>
+    <s v="Finland"/>
+    <s v="SWE"/>
+    <x v="1"/>
+    <s v="X"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Single Pass InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <m/>
+    <s v="Estimation of Snow Cover Parameters by ALOS-2 PALSAR Interferometry"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <s v="L"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <s v="Yusuf Eshqi Molan 1,*OrcID,Jin-Woo Kim 1OrcID,Zhong Lu 1OrcID andPiyush Agram 2"/>
+    <s v="L-Band Temporal Coherence Assessment and Modeling Using Amplitude and Snow Depth over Interior Alaska"/>
+    <s v="Remote Sensing"/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Yang Liu 1,2OrcID,Lanhai Li 1,2,Jinming Yang 3,Xi Chen 1,2,* andJiansheng Hao 1,2"/>
+    <s v="Estimating Snow Depth Using Multi-Source Data Fusion Based on the D-InSAR Method and 3DVAR Fusion Algorithm"/>
+    <s v="Remote Sensing"/>
+    <n v="8"/>
+    <s v="Bayanbuoak Basin"/>
+    <s v="SWE"/>
+    <x v="2"/>
+    <s v="C"/>
+    <s v="Yes"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="D-InSAR; Data Fusion"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Delwyn Moller; Konstantinos M. Andreadis; Kat J. Bormann; Scott Hensley; Thomas H. Painter"/>
+    <s v="Mapping Snow Depth From Ka-Band Interferometry: Proof of Concept and Comparison With Scanning Lidar Retrievals"/>
+    <s v="IEEE GEOSCIENCE AND REMOTE SENSING LETTERS"/>
+    <n v="10"/>
+    <s v="Sierra Nevada"/>
+    <s v="SWE"/>
+    <x v="6"/>
+    <s v="Ka"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Single Pass InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Moller, D (Moller, Delwyn) 1Hensley, S (Hensley, Scott) 2Bormann, KJ (Bormann, Kat J.) 2Deems, J (Deems, Jeffrey) 3Andreadis, K (Andreadis, Konstantinos) 2"/>
+    <s v="MAPPING SNOW-DEPTH USING KA-BAND INSAR: CALIBRATION AND VALIDATION DURING SNOWEX*"/>
+    <s v="IEEE International Symposium on Geoscience and Remote Sensing IGARSS"/>
+    <n v="0"/>
+    <m/>
+    <s v="SD"/>
+    <x v="6"/>
+    <s v="Ka"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Awasthi, S (Awasthi, Shubham) 1Kumar, S (Kumar, Shashi) 1Thakur, PK (Thakur, Praveen K.) 2Mani, S (Mani, Sneh) 3"/>
+    <s v="Pol-InSAR based Snow Depth Retrieval using Spaceborne TerraSAR-X data*"/>
+    <s v="International Conference on Computing, Communication and Networking Technologies (ICCCNT)"/>
+    <m/>
+    <s v="The Beas River Basin Manali Town India"/>
+    <s v="SWE"/>
+    <x v="1"/>
+    <s v="C"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="PolInSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Hui Li,1 Zuo Wang,2 Guangjun He,3 and Wang Man1"/>
+    <s v="Estimating Snow Depth and Snow Water Equivalence Using Repeat-Pass Interferometric SAR in the Northern Piedmont Region of the Tianshan Mountains"/>
+    <s v="Journal of Sensors"/>
+    <n v="14"/>
+    <s v="Manaz River Bazin"/>
+    <s v="SD"/>
+    <x v="7"/>
+    <s v="C"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <s v="Li, H (Li Hui) 1, 2Xiao, PF (Xiao Pengfeng) 2Feng, XZ (Feng Xuezhi) 2He, GJ (He Guangjun) 2, 3Wang, Z (Wang Zuo)"/>
+    <s v="Monitoring Snow Depth And Its Change Using Repeat-Pass Interferometric SAR In Manas River Basin"/>
+    <s v="IEEE International Symposium on Geoscience and Remote Sensing IGARSS"/>
+    <n v="2"/>
+    <s v="Manaz River Bazin"/>
+    <s v="SD"/>
+    <x v="7"/>
+    <s v="C"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Repeat Pass InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <s v="Silvan Leinss, Student Member, IEEE, Andreas Wiesmann, Senior Member, IEEE, Juha Lemmetyinen, and Irena Hajnsek, Fellow, IEEE"/>
+    <s v="Snow Water Equivalent of Dry Snow Measured by Differential Interferometry"/>
+    <s v="IEEE Journal of Selected Topics in Applied Earth Observations and Remote Sensing"/>
+    <n v="48"/>
+    <m/>
+    <s v="SWE"/>
+    <x v="8"/>
+    <s v="C"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <s v="Evans, JR (Evans, Jack R.) 1Kruse, FA (Kruse, Fred A.)"/>
+    <s v="DETERMINATION OF SNOW DEPTH USING ELEVATION DIFFERENCES DETERMINED BY INTERFEROMETRIC SAR (INSAR)*"/>
+    <s v="IEEE Joint International Geoscience and Remote Sensing Symposium (IGARSS) / 35th Canadian Symposium on Remote Sensing"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+    <s v="Ku"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <s v="Evans, JR (Evans, J. R.) 1Kruse, FA (Kruse, F. A.) 2, 3Bickel, DL (Bickel, D. L.) 4Dunkel, R (Dunkel, Ralf) 5"/>
+    <s v="Determining snow depth using Ku-Band Interferometric Synthetic Aperture Radar (InSAR)*"/>
+    <s v="Proceedings of SPIE"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+    <s v="Ku"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2011"/>
+    <s v="Deeb"/>
+    <s v="Monitoring snowpack evolution using interferometric synthetic aperture radar on the North Slope of Alaska, USA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <s v="C"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2010"/>
+    <s v="A. Esmaeily-Gazkohani"/>
+    <s v="Repeat-pass cross-track interferometric SAR to measure dry snow water equivalent and depth"/>
+    <s v="Canadian Journal of Remote Sensing"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2004"/>
+    <s v="Geir Engen, Tore Guneriussen, and Øyvind Overrein"/>
+    <s v="Delta-K Interferometric SAR Technique for Snow Water Equivalent (SWE) Retrieval"/>
+    <s v="IEEE GEOSCIENCE AND REMOTE SENSING LETTERS"/>
+    <n v="18"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="X"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <s v="Tore Guneriussen, Kjell Arild Høgda, Harald Johnsen, and Inge Lauknes"/>
+    <s v="InSAR for Estimation of Changes in Snow Water Equivalent of Dry Snow"/>
+    <s v="IEEE TRANSACTIONS ON GEOSCIENCE AND REMOTE SENSING"/>
+    <n v="72"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="X"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <s v="Eric Rignot, Keith Echelmeyer, William Krabill"/>
+    <s v="Penetration depth of interferometric synthetic-aperture radar signals in snow and ice"/>
+    <s v="GEOPHYSICAL RESEARCH LETTERS"/>
+    <n v="209"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E05C65E-D7A1-4E3B-922A-CC442FB57A1C}" name="PivotTable19" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Band" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B74AB8F-E5F1-4E45-8F26-5C3384292D92}" name="PivotTable32" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="11">
+        <item x="10"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Satelite Data" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1324,11 +4823,11 @@
   <dimension ref="A1:I1834"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1368,12 +4867,12 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1473,7 +4972,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -1490,10 +4989,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1510,16 +5009,16 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1536,10 +5035,10 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1556,10 +5055,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1576,13 +5075,13 @@
         <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1599,10 +5098,10 @@
         <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1619,10 +5118,10 @@
         <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1639,7 +5138,7 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1656,7 +5155,7 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1673,7 +5172,7 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1690,7 +5189,7 @@
         <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1707,10 +5206,10 @@
         <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1727,13 +5226,13 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1750,13 +5249,13 @@
         <v>30</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1773,13 +5272,13 @@
         <v>31</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1796,13 +5295,13 @@
         <v>32</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1819,13 +5318,13 @@
         <v>33</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1842,13 +5341,13 @@
         <v>34</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1865,13 +5364,13 @@
         <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1888,13 +5387,13 @@
         <v>36</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I29">
         <v>9.7200000000000006</v>
@@ -1914,13 +5413,13 @@
         <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1937,10 +5436,10 @@
         <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1957,7 +5456,7 @@
         <v>39</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1974,7 +5473,7 @@
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I33">
         <v>23</v>
@@ -1994,10 +5493,10 @@
         <v>41</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H34" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2014,10 +5513,10 @@
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2034,13 +5533,13 @@
         <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2057,13 +5556,13 @@
         <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G37" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2080,13 +5579,13 @@
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2103,10 +5602,10 @@
         <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G39" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2123,7 +5622,7 @@
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I40">
         <v>29</v>
@@ -2143,7 +5642,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2160,7 +5659,7 @@
         <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2177,7 +5676,7 @@
         <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2194,13 +5693,13 @@
         <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G44" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H44" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2217,13 +5716,13 @@
         <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H45" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2240,10 +5739,10 @@
         <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G46" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2257,16 +5756,16 @@
         <v>44484</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H47" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I47" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -2280,13 +5779,13 @@
         <v>44485</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2300,10 +5799,10 @@
         <v>44486</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H49" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2317,13 +5816,13 @@
         <v>44487</v>
       </c>
       <c r="D50" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H50" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I50" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2337,13 +5836,13 @@
         <v>44488</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G51" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H51" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2357,7 +5856,7 @@
         <v>44489</v>
       </c>
       <c r="D52" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2371,13 +5870,13 @@
         <v>44490</v>
       </c>
       <c r="D53" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H53" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2391,16 +5890,16 @@
         <v>44491</v>
       </c>
       <c r="D54" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H54" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I54" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2414,13 +5913,13 @@
         <v>44492</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H55" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2434,10 +5933,10 @@
         <v>44493</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H56" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2451,13 +5950,13 @@
         <v>44494</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H57" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2471,13 +5970,13 @@
         <v>44495</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="H58" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2491,13 +5990,13 @@
         <v>44496</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="H59" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2511,10 +6010,10 @@
         <v>44497</v>
       </c>
       <c r="D60" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="H60" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2528,10 +6027,10 @@
         <v>44498</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="H61" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2545,10 +6044,10 @@
         <v>44499</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="H62" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2562,10 +6061,10 @@
         <v>44500</v>
       </c>
       <c r="D63" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H63" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2578,8 +6077,14 @@
       <c r="C64" s="1">
         <v>44501</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>260</v>
+      </c>
+      <c r="H64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44502</v>
       </c>
@@ -2589,8 +6094,17 @@
       <c r="C65" s="1">
         <v>44502</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G65" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44503</v>
       </c>
@@ -2600,8 +6114,14 @@
       <c r="C66" s="1">
         <v>44503</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>280</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44504</v>
       </c>
@@ -2612,7 +6132,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44505</v>
       </c>
@@ -2623,7 +6143,7 @@
         <v>44505</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44506</v>
       </c>
@@ -2634,7 +6154,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44507</v>
       </c>
@@ -2645,7 +6165,7 @@
         <v>44507</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44508</v>
       </c>
@@ -2656,7 +6176,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44509</v>
       </c>
@@ -2667,7 +6187,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44510</v>
       </c>
@@ -2678,7 +6198,7 @@
         <v>44510</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44511</v>
       </c>
@@ -2689,7 +6209,7 @@
         <v>44511</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44512</v>
       </c>
@@ -2700,7 +6220,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44513</v>
       </c>
@@ -2711,10 +6231,10 @@
         <v>44513</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44514</v>
       </c>
@@ -2725,10 +6245,10 @@
         <v>44514</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44515</v>
       </c>
@@ -2739,10 +6259,10 @@
         <v>44515</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44516</v>
       </c>
@@ -2753,10 +6273,10 @@
         <v>44516</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44517</v>
       </c>
@@ -2767,7 +6287,7 @@
         <v>44517</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -22075,10 +25595,10 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22090,6 +25610,7 @@
     <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
     <col min="13" max="13" width="40" style="2" customWidth="1"/>
     <col min="14" max="15" width="21.5703125" style="2" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" customWidth="1"/>
@@ -22112,337 +25633,365 @@
         <v>20</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="P3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="G4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>2020</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="195" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="H6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="N7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10">
+        <v>11</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="10">
-        <v>4</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="N8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="10">
-        <v>11</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="G11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    </row>
+    <row r="12" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>2018</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>122</v>
+      <c r="C12" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -22450,13 +25999,13 @@
         <v>2018</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="19">
         <v>10</v>
@@ -22470,32 +26019,34 @@
         <v>2017</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7">
         <v>8</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="J14" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -22503,29 +26054,31 @@
         <v>2017</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="10">
         <v>10</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>275</v>
+      </c>
       <c r="I15" s="16" t="s">
-        <v>126</v>
+        <v>264</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -22533,46 +26086,55 @@
         <v>2017</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2017</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="13" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>271</v>
+      </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -22580,29 +26142,31 @@
         <v>2017</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E18" s="7">
         <v>14</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" t="s">
-        <v>128</v>
+        <v>92</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -22610,29 +26174,31 @@
         <v>2016</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" s="10">
         <v>2</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" t="s">
-        <v>128</v>
+        <v>92</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -22640,35 +26206,40 @@
         <v>2015</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="7">
         <v>48</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2014</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="E21" s="10">
         <v>5</v>
@@ -22676,7 +26247,10 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="13" t="s">
-        <v>257</v>
+        <v>272</v>
+      </c>
+      <c r="I21" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -22684,13 +26258,13 @@
         <v>2014</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -22698,7 +26272,10 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13" t="s">
-        <v>257</v>
+        <v>272</v>
+      </c>
+      <c r="I22" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -22706,17 +26283,20 @@
         <v>2011</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="13" t="s">
-        <v>256</v>
+      <c r="H23" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -22724,13 +26304,13 @@
         <v>2010</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="E24" s="10">
         <v>2</v>
@@ -22738,7 +26318,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -22746,21 +26326,24 @@
         <v>2004</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="7">
         <v>18</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="13" t="s">
-        <v>253</v>
+      <c r="H25" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -22768,21 +26351,24 @@
         <v>2001</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="E26" s="10">
         <v>72</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" t="s">
-        <v>253</v>
+      <c r="H26" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I26" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -22790,13 +26376,13 @@
         <v>2001</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="E27" s="7">
         <v>209</v>
@@ -22807,7 +26393,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="https://www.researchgate.net/publication/333419930_Snow_Depth_and_SWE_Estimation_using_Spaceborne_Polarimetric_and_Interferometric_Synthetic_Aperture_Radar" xr:uid="{4B41D3C9-861F-4972-906E-EAAC9F3C1F85}"/>
+    <hyperlink ref="C10" r:id="rId1" display="https://www.researchgate.net/publication/333419930_Snow_Depth_and_SWE_Estimation_using_Spaceborne_Polarimetric_and_Interferometric_Synthetic_Aperture_Radar" xr:uid="{4B41D3C9-861F-4972-906E-EAAC9F3C1F85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -22822,7 +26408,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22856,34 +26442,34 @@
         <v>20</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="N1" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -22892,14 +26478,14 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="25" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="M2" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -22908,7 +26494,7 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="25" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -22921,7 +26507,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="25" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
@@ -22935,7 +26521,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="25" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="10"/>
@@ -22949,7 +26535,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="25" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
@@ -22964,7 +26550,7 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="25" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
@@ -22977,10 +26563,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
@@ -23153,6 +26739,182 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD0F739-02D9-4B57-80A5-04C2334B44BC}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="27">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F2E459-E772-4BFC-ADFE-395C173E3D7B}">
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="27">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A299D5-3039-472C-9430-4F80B5A7C47A}">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -23194,34 +26956,34 @@
         <v>20</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="N1" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -23229,26 +26991,26 @@
         <v>2020</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E2" s="7">
         <v>5</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -23465,7 +27227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBBC754-708F-4376-88C7-1785F0760BEF}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93FCDC1-2E6D-4B88-A0B1-CFB4CF2EEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C22F0-9C9A-4AD4-847E-9B105576CFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId8"/>
-    <pivotCache cacheId="53" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="289">
   <si>
     <t>Date</t>
   </si>
@@ -904,6 +904,27 @@
   </si>
   <si>
     <t>GEO GRAD</t>
+  </si>
+  <si>
+    <t>GEOGRAD</t>
+  </si>
+  <si>
+    <t>TAJ-Module4</t>
+  </si>
+  <si>
+    <t>CUAHSI</t>
+  </si>
+  <si>
+    <t>400 (Emna Refund); 110 (Food and Clothing)</t>
+  </si>
+  <si>
+    <t>74/1833</t>
+  </si>
+  <si>
+    <t>75/1833</t>
+  </si>
+  <si>
+    <t>76/1833</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1227,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1602,7 +1625,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4190,7 +4215,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E05C65E-D7A1-4E3B-922A-CC442FB57A1C}" name="PivotTable19" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E05C65E-D7A1-4E3B-922A-CC442FB57A1C}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4364,7 +4389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B74AB8F-E5F1-4E45-8F26-5C3384292D92}" name="PivotTable32" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B74AB8F-E5F1-4E45-8F26-5C3384292D92}" name="PivotTable32" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4823,11 +4848,11 @@
   <dimension ref="A1:I1834"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6084,7 +6109,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44502</v>
       </c>
@@ -6104,7 +6129,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44503</v>
       </c>
@@ -6117,11 +6142,11 @@
       <c r="D66" t="s">
         <v>280</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44504</v>
       </c>
@@ -6131,8 +6156,14 @@
       <c r="C67" s="1">
         <v>44504</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>286</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44505</v>
       </c>
@@ -6142,8 +6173,23 @@
       <c r="C68" s="1">
         <v>44505</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G68" t="s">
+        <v>283</v>
+      </c>
+      <c r="H68" t="s">
+        <v>284</v>
+      </c>
+      <c r="I68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44506</v>
       </c>
@@ -6153,8 +6199,11 @@
       <c r="C69" s="1">
         <v>44506</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44507</v>
       </c>
@@ -6165,7 +6214,7 @@
         <v>44507</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44508</v>
       </c>
@@ -6176,7 +6225,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44509</v>
       </c>
@@ -6187,7 +6236,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44510</v>
       </c>
@@ -6198,7 +6247,7 @@
         <v>44510</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44511</v>
       </c>
@@ -6209,7 +6258,7 @@
         <v>44511</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44512</v>
       </c>
@@ -6220,7 +6269,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44513</v>
       </c>
@@ -6234,7 +6283,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44514</v>
       </c>
@@ -6248,7 +6297,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44515</v>
       </c>
@@ -6262,7 +6311,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44516</v>
       </c>
@@ -6276,7 +6325,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44517</v>
       </c>

--- a/Daily-Track.xlsx
+++ b/Daily-Track.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\PhD\DhP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PhD\DhP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C22F0-9C9A-4AD4-847E-9B105576CFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23FA3DA-78F1-4C78-909F-11C06596578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="SLR" sheetId="2" r:id="rId2"/>
-    <sheet name="Guinerissen-Cited" sheetId="5" r:id="rId3"/>
-    <sheet name="Band" sheetId="8" r:id="rId4"/>
-    <sheet name="Satellite" sheetId="9" r:id="rId5"/>
+    <sheet name="Satellitee" sheetId="11" r:id="rId2"/>
+    <sheet name="SLR" sheetId="2" r:id="rId3"/>
+    <sheet name="Band" sheetId="10" r:id="rId4"/>
+    <sheet name="Guinerissen-Cited" sheetId="5" r:id="rId5"/>
     <sheet name="Awasthi-Cross-reference" sheetId="4" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId7"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -858,9 +858,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>PALSAR, ALOS</t>
-  </si>
-  <si>
     <t>Band</t>
   </si>
   <si>
@@ -925,6 +922,30 @@
   </si>
   <si>
     <t>76/1833</t>
+  </si>
+  <si>
+    <t>UTP Thesis</t>
+  </si>
+  <si>
+    <t>77/1833</t>
+  </si>
+  <si>
+    <t>78/1833</t>
+  </si>
+  <si>
+    <t>79/1833</t>
+  </si>
+  <si>
+    <t>80/1833</t>
+  </si>
+  <si>
+    <t>108/1833</t>
+  </si>
+  <si>
+    <t>Grad Project Finals</t>
+  </si>
+  <si>
+    <t>SNOW PHYSICS</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1155,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Daily-Track.xlsx]Band!PivotTable19</c:name>
+    <c:name>[Daily-Track.xlsx]Satellitee!PivotTable12</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1159,15 +1180,428 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>InSAR for Snow</a:t>
+              <a:t>InSAR for Snow Depth/SWE: Sensor used in the literature</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Depth/SWE: </a:t>
-            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Satellitee!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Satellitee!$A$4:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AIRSAR*</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Envisat ASAR IMS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERS-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GLISTIN*</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lynx (Ku)*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PALSAR/ALOS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sentinel 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SSI*</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TerraSAR-X/TanDEM-X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Satellitee!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C55E-4B20-839F-05C602DFDDDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="516764927"/>
+        <c:axId val="516758271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="516764927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516758271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516758271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516764927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Daily-Track.xlsx]Band!PivotTable7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Count of Band used in the literature </a:t>
+              <a:t>InSAR for Snow Depth/SWE: Count of Band used in the literature</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1296,19 +1730,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>C</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ka</c:v>
+                <c:pt idx="2">
+                  <c:v>X</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ku</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>L</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>X</c:v>
+                  <c:v>Ka</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1320,26 +1754,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E6F1-43F9-8A6E-13196CF7C320}"/>
+              <c16:uniqueId val="{00000000-69B1-46E6-99AD-BDB2EB837ECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1353,11 +1787,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1624152415"/>
-        <c:axId val="1624152831"/>
+        <c:axId val="382539535"/>
+        <c:axId val="382542863"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1624152415"/>
+        <c:axId val="382539535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1624152831"/>
+        <c:crossAx val="382542863"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1624152831"/>
+        <c:axId val="382542863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,434 +1893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1624152415"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Daily-Track.xlsx]Satellite!PivotTable32</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Satelite Mission</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Satellite!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Satellite!$A$4:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>AIRSAR*</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Envisat ASAR IMS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ERS-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GLISTIN*</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Lynx (Ku)*</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>PALSAR, ALOS</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PALSAR/ALOS</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Sentinel 1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>SSI*</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TerraSAR-X/TanDEM-X</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Satellite!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-568B-4CAA-951D-366A2FE2FA86}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1615169615"/>
-        <c:axId val="1615187503"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1615169615"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1615187503"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1615187503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1615169615"/>
+        <c:crossAx val="382539535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2034,509 +2041,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3041,27 +2545,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529C87B1-9801-46A4-BEF4-89F2A6535125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102AD847-AD07-47B2-9FF8-5179A185FDDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,23 +3093,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1271587</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37006E86-56E3-4E48-99D0-EE42731F5DDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67AEB97-0EA0-4EFB-91A7-E3E9FEB9CFB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3131,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44502.352514814818" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{6C24B3B2-0DFC-4647-A88A-2776F016F922}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44507.856279629632" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{C200AE3B-5506-4B72-9377-09C87779BDAA}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P27" sheet="SLR"/>
   </cacheSource>
@@ -3151,7 +3158,18 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Satelite Data" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="10">
+        <s v="ERS-1"/>
+        <s v="TerraSAR-X/TanDEM-X"/>
+        <s v="Sentinel 1"/>
+        <m/>
+        <s v="PALSAR/ALOS"/>
+        <s v="GLISTIN*"/>
+        <s v="Envisat ASAR IMS"/>
+        <s v="SSI*"/>
+        <s v="Lynx (Ku)*"/>
+        <s v="AIRSAR*"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Band" numFmtId="0">
       <sharedItems containsBlank="1" count="6">
@@ -3194,7 +3212,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44502.367602314815" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{58D2B3AF-E2E5-46F4-A153-DC2E7FF7DAEE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44507.875090393522" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{6DB63517-7627-4DB2-8F9F-74405FBF5336}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P27" sheet="SLR"/>
   </cacheSource>
@@ -3221,13 +3239,12 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Satelite Data" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="10">
         <s v="ERS-1"/>
         <s v="TerraSAR-X/TanDEM-X"/>
         <s v="Sentinel 1"/>
         <m/>
         <s v="PALSAR/ALOS"/>
-        <s v="PALSAR, ALOS"/>
         <s v="GLISTIN*"/>
         <s v="Envisat ASAR IMS"/>
         <s v="SSI*"/>
@@ -3278,7 +3295,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="ERS-1"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -3296,481 +3313,8 @@
     <m/>
     <s v="Mount Erciyes/Turkey"/>
     <s v="SD,SDn, SV, SWE"/>
-    <s v="TerraSAR-X"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Using single polarization"/>
-    <m/>
-    <s v="Satisfactory result was obtained with single-polarization data"/>
-  </r>
-  <r>
-    <n v="2021"/>
-    <s v="Shubham Awasthi a , Shashi Kumar b , Praveen K Thakur c , Kamal Jain d , Ajeet Kumar e and Snehmanif"/>
-    <s v="Snow depth retrieval in North-Western Himalayan region using pursuit-monostatic TanDEM-X datasets applying polarimetric synthetic aperture radar interferometry based inversion Modelling"/>
-    <s v="International Journal of Remote Sensing"/>
-    <n v="1"/>
-    <s v="North-Western Himalaya region"/>
-    <s v="SD"/>
-    <s v="TanDEM-X/TerraSAR-X"/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="PolSAR and InSAR have proven useful in estimating snow parameters. InSAR technique is based on interferometric phase information from repeat pass observation. However, loss of interferometric coherence is a major challenge in employing repeat-pass SAR interferometry due to large temporal gap between the repeat passes that result in temporal decorellation. So, there is need for a technique for snow parameter observation which can work with zero temporal baseline"/>
-    <s v="Development of Polarimetric SAR Interferometric based modelling approach for snow-depth estimation using TerraSAR-X/TanDEM-X datasets acquired in the pursuit monostatic mode with almost zero temporal baseline (10secs)"/>
-    <s v="PolInSAR based Coherence Amplitude inversion modelling"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2021"/>
-    <s v="Jinming Yang1 &amp; Chengzhi Li"/>
-    <s v="Assimilation of D-InSAR snow depth data by an ensemble Kalman filter"/>
-    <s v="Arabian Journal of Geosciences"/>
-    <n v="0"/>
-    <s v="Xinjiang, China"/>
-    <s v="SD"/>
-    <s v="Sentinel 1"/>
-    <x v="0"/>
-    <s v="ultrasonic probe and manual measurement"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="D-InSAR inversion of snow deoth and Data Assimilation to Improve spatial and temporal resolution by "/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2020"/>
-    <s v="Abdul Basir Mahmoodzada, Divyesh Varade"/>
-    <s v="Estimation of Snow Depth in the Hindu Kush Himalayas of Afghanistan during Peak Winter and Early Melt Season"/>
-    <s v="Remote Sensing"/>
-    <n v="4"/>
-    <s v="Hindu Kush Himalayas of Afghanistan"/>
-    <s v="SD"/>
-    <s v="Sentinel 1"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="analyzed the potential of Sentinel-1 dual polarimetric and interferometric_x000a_observations for the estimation of snow depth"/>
-    <s v="DInSAR"/>
-    <s v="Snow pertimitivity to improve the estimation of snowpack displacement "/>
-  </r>
-  <r>
-    <n v="2020"/>
-    <s v="Shadi Oveisgharan"/>
-    <s v="Evaluating the Preconditions of Two Remote Sensing SWE Retrieval Algorithms over the US"/>
-    <s v="Remote Sensing"/>
-    <n v="2"/>
-    <s v="US"/>
-    <s v="SWE"/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Two major SWE retrieval algorithms"/>
-    <m/>
-    <s v="Many"/>
-  </r>
-  <r>
-    <m/>
-    <s v="Dmitriev"/>
-    <s v="Estimation of snow water equivalent from L-band radar interferometry: simulation and experiment"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="SWE"/>
-    <s v="PALSAR, ALOS"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2019"/>
-    <s v="Vasco Conde,"/>
-    <s v="On The Estimation of Temporal Changes of Snow Water Equivalent by Spaceborne Sar Interferometry: A New Application for the Sentinel-1 Mission"/>
-    <s v="Journal of Hydrology and Hydromechanics"/>
-    <n v="11"/>
-    <s v="Finland"/>
-    <s v="SWE"/>
-    <s v="Sentinel 1"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="InSAR, modelled microwave phase delay"/>
-    <m/>
-    <s v="the proposed methodology could map SWE also over regions covered by shrubs or low vegetation."/>
-  </r>
-  <r>
-    <n v="2019"/>
-    <s v="Sayantan"/>
-    <s v="Snow Depth and SWE Estimation using Spaceborne Polarimetric and Interferometric Synthetic Aperture Radar"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="TerraSAR-X; Tandem-X"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2018"/>
-    <s v="Silvan Leinss(1), Oleg Antropov(2), Juho Vehvilainen ¨ (3), Juha Lemmetyinen(3), Irena Hajnsek(1,4), Jaan Praks(2"/>
-    <s v="WET SNOW DEPTH FROM TANDEM-X SINGLE-PASS INSAR DEM DIFFERENCING*"/>
-    <s v="IEEE International Geoscience and Remote Sensing Symposium (IGARSS)"/>
-    <n v="1"/>
-    <s v="Finland"/>
-    <s v="SWE"/>
-    <s v="TANDEM-X"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Single Pass InSAR"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2018"/>
-    <m/>
-    <s v="Estimation of Snow Cover Parameters by ALOS-2 PALSAR Interferometry"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="PALSAR, ALOS"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2018"/>
-    <s v="Yusuf Eshqi Molan 1,*OrcID,Jin-Woo Kim 1OrcID,Zhong Lu 1OrcID andPiyush Agram 2"/>
-    <s v="L-Band Temporal Coherence Assessment and Modeling Using Amplitude and Snow Depth over Interior Alaska"/>
-    <s v="Remote Sensing"/>
-    <n v="10"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2017"/>
-    <s v="Yang Liu 1,2OrcID,Lanhai Li 1,2,Jinming Yang 3,Xi Chen 1,2,* andJiansheng Hao 1,2"/>
-    <s v="Estimating Snow Depth Using Multi-Source Data Fusion Based on the D-InSAR Method and 3DVAR Fusion Algorithm"/>
-    <s v="Remote Sensing"/>
-    <n v="8"/>
-    <s v="Bayanbuoak Basin"/>
-    <s v="SWE"/>
-    <s v="Sentinel 1"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="D-InSAR; Data Fusion"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2017"/>
-    <s v="Delwyn Moller; Konstantinos M. Andreadis; Kat J. Bormann; Scott Hensley; Thomas H. Painter"/>
-    <s v="Mapping Snow Depth From Ka-Band Interferometry: Proof of Concept and Comparison With Scanning Lidar Retrievals"/>
-    <s v="IEEE GEOSCIENCE AND REMOTE SENSING LETTERS"/>
-    <n v="10"/>
-    <s v="Sierra Nevada"/>
-    <s v="SWE"/>
-    <s v="GLISTIN"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Single Pass InSAR"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2017"/>
-    <s v="Moller, D (Moller, Delwyn) 1Hensley, S (Hensley, Scott) 2Bormann, KJ (Bormann, Kat J.) 2Deems, J (Deems, Jeffrey) 3Andreadis, K (Andreadis, Konstantinos) 2"/>
-    <s v="MAPPING SNOW-DEPTH USING KA-BAND INSAR: CALIBRATION AND VALIDATION DURING SNOWEX*"/>
-    <s v="IEEE International Symposium on Geoscience and Remote Sensing IGARSS"/>
-    <n v="0"/>
-    <m/>
-    <s v="SD"/>
-    <s v="GLISTIN"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2017"/>
-    <s v="Awasthi, S (Awasthi, Shubham) 1Kumar, S (Kumar, Shashi) 1Thakur, PK (Thakur, Praveen K.) 2Mani, S (Mani, Sneh) 3"/>
-    <s v="Pol-InSAR based Snow Depth Retrieval using Spaceborne TerraSAR-X data*"/>
-    <s v="International Conference on Computing, Communication and Networking Technologies (ICCCNT)"/>
-    <m/>
-    <s v="The Beas River Basin Manali Town India"/>
-    <s v="SWE"/>
-    <s v="TerraSAR-X"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="PolInSAR"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2017"/>
-    <s v="Hui Li,1 Zuo Wang,2 Guangjun He,3 and Wang Man1"/>
-    <s v="Estimating Snow Depth and Snow Water Equivalence Using Repeat-Pass Interferometric SAR in the Northern Piedmont Region of the Tianshan Mountains"/>
-    <s v="Journal of Sensors"/>
-    <n v="14"/>
-    <s v="Manaz River Bazin"/>
-    <s v="SD"/>
-    <s v="Envisat ASAR IMS"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="InSAR"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2016"/>
-    <s v="Li, H (Li Hui) 1, 2Xiao, PF (Xiao Pengfeng) 2Feng, XZ (Feng Xuezhi) 2He, GJ (He Guangjun) 2, 3Wang, Z (Wang Zuo)"/>
-    <s v="Monitoring Snow Depth And Its Change Using Repeat-Pass Interferometric SAR In Manas River Basin"/>
-    <s v="IEEE International Symposium on Geoscience and Remote Sensing IGARSS"/>
-    <n v="2"/>
-    <s v="Manaz River Bazin"/>
-    <s v="SD"/>
-    <s v="Envisat ASAR IMS"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Repeat Pass InSAR"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2015"/>
-    <s v="Silvan Leinss, Student Member, IEEE, Andreas Wiesmann, Senior Member, IEEE, Juha Lemmetyinen, and Irena Hajnsek, Fellow, IEEE"/>
-    <s v="Snow Water Equivalent of Dry Snow Measured by Differential Interferometry"/>
-    <s v="IEEE Journal of Selected Topics in Applied Earth Observations and Remote Sensing"/>
-    <n v="48"/>
-    <m/>
-    <s v="SWE"/>
-    <s v="SSI"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2014"/>
-    <s v="Evans, JR (Evans, Jack R.) 1Kruse, FA (Kruse, Fred A.)"/>
-    <s v="DETERMINATION OF SNOW DEPTH USING ELEVATION DIFFERENCES DETERMINED BY INTERFEROMETRIC SAR (INSAR)*"/>
-    <s v="IEEE Joint International Geoscience and Remote Sensing Symposium (IGARSS) / 35th Canadian Symposium on Remote Sensing"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <s v="Lynx (Ku)"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2014"/>
-    <s v="Evans, JR (Evans, J. R.) 1Kruse, FA (Kruse, F. A.) 2, 3Bickel, DL (Bickel, D. L.) 4Dunkel, R (Dunkel, Ralf) 5"/>
-    <s v="Determining snow depth using Ku-Band Interferometric Synthetic Aperture Radar (InSAR)*"/>
-    <s v="Proceedings of SPIE"/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <s v="Lynx (Ku)"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2011"/>
-    <s v="Deeb"/>
-    <s v="Monitoring snowpack evolution using interferometric synthetic aperture radar on the North Slope of Alaska, USA"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="ERS-1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2010"/>
-    <s v="A. Esmaeily-Gazkohani"/>
-    <s v="Repeat-pass cross-track interferometric SAR to measure dry snow water equivalent and depth"/>
-    <s v="Canadian Journal of Remote Sensing"/>
-    <n v="2"/>
-    <m/>
-    <m/>
-    <s v="AIRSAR"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2004"/>
-    <s v="Geir Engen, Tore Guneriussen, and Øyvind Overrein"/>
-    <s v="Delta-K Interferometric SAR Technique for Snow Water Equivalent (SWE) Retrieval"/>
-    <s v="IEEE GEOSCIENCE AND REMOTE SENSING LETTERS"/>
-    <n v="18"/>
-    <m/>
-    <m/>
-    <s v="Tandem-X (ERS-1/2)"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2001"/>
-    <s v="Tore Guneriussen, Kjell Arild Høgda, Harald Johnsen, and Inge Lauknes"/>
-    <s v="InSAR for Estimation of Changes in Snow Water Equivalent of Dry Snow"/>
-    <s v="IEEE TRANSACTIONS ON GEOSCIENCE AND REMOTE SENSING"/>
-    <n v="72"/>
-    <m/>
-    <m/>
-    <s v="Tandem-X (ERS-1/2)"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2001"/>
-    <s v="Eric Rignot, Keith Echelmeyer, William Krabill"/>
-    <s v="Penetration depth of interferometric synthetic-aperture radar signals in snow and ice"/>
-    <s v="GEOPHYSICAL RESEARCH LETTERS"/>
-    <n v="209"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
-  <r>
-    <n v="2011"/>
-    <s v="ELIAS J. DEEB*†‡, RICHARD R. FORSTER‡ and DOUGLAS L. KANE"/>
-    <s v="Monitoring snowpack evolution using interferometric synthetic aperture radar on the North Slope of Alaska, USA"/>
-    <s v="International Journal of Remote Sensing"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <s v="C"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="2021"/>
-    <s v="Ahmet Tarık TORUN &amp; Semih EKERCİN "/>
-    <s v="Estimating snow density, depth, volume, and snow water equivalent with InSAR data in the Erciyes mountain/Turkey"/>
-    <s v="Arabian Journal of Geosciences"/>
-    <m/>
-    <s v="Mount Erciyes/Turkey"/>
-    <s v="SD,SDn, SV, SWE"/>
-    <x v="1"/>
-    <s v="X"/>
     <m/>
     <m/>
     <m/>
@@ -3788,7 +3332,7 @@
     <s v="North-Western Himalaya region"/>
     <s v="SD"/>
     <x v="1"/>
-    <s v="X"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -3806,7 +3350,7 @@
     <s v="Xinjiang, China"/>
     <s v="SD"/>
     <x v="2"/>
-    <s v="C"/>
+    <x v="0"/>
     <s v="ultrasonic probe and manual measurement"/>
     <m/>
     <m/>
@@ -3824,7 +3368,7 @@
     <s v="Hindu Kush Himalayas of Afghanistan"/>
     <s v="SD"/>
     <x v="2"/>
-    <s v="C"/>
+    <x v="0"/>
     <s v="Yes"/>
     <m/>
     <m/>
@@ -3842,6 +3386,479 @@
     <s v="US"/>
     <s v="SWE"/>
     <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Two major SWE retrieval algorithms"/>
+    <m/>
+    <s v="Many"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Dmitriev"/>
+    <s v="Estimation of snow water equivalent from L-band radar interferometry: simulation and experiment"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="SWE"/>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2019"/>
+    <s v="Vasco Conde,"/>
+    <s v="On The Estimation of Temporal Changes of Snow Water Equivalent by Spaceborne Sar Interferometry: A New Application for the Sentinel-1 Mission"/>
+    <s v="Journal of Hydrology and Hydromechanics"/>
+    <n v="11"/>
+    <s v="Finland"/>
+    <s v="SWE"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="InSAR, modelled microwave phase delay"/>
+    <m/>
+    <s v="the proposed methodology could map SWE also over regions covered by shrubs or low vegetation."/>
+  </r>
+  <r>
+    <n v="2019"/>
+    <s v="Sayantan"/>
+    <s v="Snow Depth and SWE Estimation using Spaceborne Polarimetric and Interferometric Synthetic Aperture Radar"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <s v="Silvan Leinss(1), Oleg Antropov(2), Juho Vehvilainen ¨ (3), Juha Lemmetyinen(3), Irena Hajnsek(1,4), Jaan Praks(2"/>
+    <s v="WET SNOW DEPTH FROM TANDEM-X SINGLE-PASS INSAR DEM DIFFERENCING*"/>
+    <s v="IEEE International Geoscience and Remote Sensing Symposium (IGARSS)"/>
+    <n v="1"/>
+    <s v="Finland"/>
+    <s v="SWE"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Single Pass InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <m/>
+    <s v="Estimation of Snow Cover Parameters by ALOS-2 PALSAR Interferometry"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <s v="Yusuf Eshqi Molan 1,*OrcID,Jin-Woo Kim 1OrcID,Zhong Lu 1OrcID andPiyush Agram 2"/>
+    <s v="L-Band Temporal Coherence Assessment and Modeling Using Amplitude and Snow Depth over Interior Alaska"/>
+    <s v="Remote Sensing"/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Yang Liu 1,2OrcID,Lanhai Li 1,2,Jinming Yang 3,Xi Chen 1,2,* andJiansheng Hao 1,2"/>
+    <s v="Estimating Snow Depth Using Multi-Source Data Fusion Based on the D-InSAR Method and 3DVAR Fusion Algorithm"/>
+    <s v="Remote Sensing"/>
+    <n v="8"/>
+    <s v="Bayanbuoak Basin"/>
+    <s v="SWE"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Yes"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="D-InSAR; Data Fusion"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Delwyn Moller; Konstantinos M. Andreadis; Kat J. Bormann; Scott Hensley; Thomas H. Painter"/>
+    <s v="Mapping Snow Depth From Ka-Band Interferometry: Proof of Concept and Comparison With Scanning Lidar Retrievals"/>
+    <s v="IEEE GEOSCIENCE AND REMOTE SENSING LETTERS"/>
+    <n v="10"/>
+    <s v="Sierra Nevada"/>
+    <s v="SWE"/>
+    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Single Pass InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Moller, D (Moller, Delwyn) 1Hensley, S (Hensley, Scott) 2Bormann, KJ (Bormann, Kat J.) 2Deems, J (Deems, Jeffrey) 3Andreadis, K (Andreadis, Konstantinos) 2"/>
+    <s v="MAPPING SNOW-DEPTH USING KA-BAND INSAR: CALIBRATION AND VALIDATION DURING SNOWEX*"/>
+    <s v="IEEE International Symposium on Geoscience and Remote Sensing IGARSS"/>
+    <n v="0"/>
+    <m/>
+    <s v="SD"/>
+    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Awasthi, S (Awasthi, Shubham) 1Kumar, S (Kumar, Shashi) 1Thakur, PK (Thakur, Praveen K.) 2Mani, S (Mani, Sneh) 3"/>
+    <s v="Pol-InSAR based Snow Depth Retrieval using Spaceborne TerraSAR-X data*"/>
+    <s v="International Conference on Computing, Communication and Networking Technologies (ICCCNT)"/>
+    <m/>
+    <s v="The Beas River Basin Manali Town India"/>
+    <s v="SWE"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="PolInSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <s v="Hui Li,1 Zuo Wang,2 Guangjun He,3 and Wang Man1"/>
+    <s v="Estimating Snow Depth and Snow Water Equivalence Using Repeat-Pass Interferometric SAR in the Northern Piedmont Region of the Tianshan Mountains"/>
+    <s v="Journal of Sensors"/>
+    <n v="14"/>
+    <s v="Manaz River Bazin"/>
+    <s v="SD"/>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2016"/>
+    <s v="Li, H (Li Hui) 1, 2Xiao, PF (Xiao Pengfeng) 2Feng, XZ (Feng Xuezhi) 2He, GJ (He Guangjun) 2, 3Wang, Z (Wang Zuo)"/>
+    <s v="Monitoring Snow Depth And Its Change Using Repeat-Pass Interferometric SAR In Manas River Basin"/>
+    <s v="IEEE International Symposium on Geoscience and Remote Sensing IGARSS"/>
+    <n v="2"/>
+    <s v="Manaz River Bazin"/>
+    <s v="SD"/>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Repeat Pass InSAR"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <s v="Silvan Leinss, Student Member, IEEE, Andreas Wiesmann, Senior Member, IEEE, Juha Lemmetyinen, and Irena Hajnsek, Fellow, IEEE"/>
+    <s v="Snow Water Equivalent of Dry Snow Measured by Differential Interferometry"/>
+    <s v="IEEE Journal of Selected Topics in Applied Earth Observations and Remote Sensing"/>
+    <n v="48"/>
+    <m/>
+    <s v="SWE"/>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <s v="Evans, JR (Evans, Jack R.) 1Kruse, FA (Kruse, Fred A.)"/>
+    <s v="DETERMINATION OF SNOW DEPTH USING ELEVATION DIFFERENCES DETERMINED BY INTERFEROMETRIC SAR (INSAR)*"/>
+    <s v="IEEE Joint International Geoscience and Remote Sensing Symposium (IGARSS) / 35th Canadian Symposium on Remote Sensing"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <s v="Evans, JR (Evans, J. R.) 1Kruse, FA (Kruse, F. A.) 2, 3Bickel, DL (Bickel, D. L.) 4Dunkel, R (Dunkel, Ralf) 5"/>
+    <s v="Determining snow depth using Ku-Band Interferometric Synthetic Aperture Radar (InSAR)*"/>
+    <s v="Proceedings of SPIE"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2011"/>
+    <s v="Deeb"/>
+    <s v="Monitoring snowpack evolution using interferometric synthetic aperture radar on the North Slope of Alaska, USA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2010"/>
+    <s v="A. Esmaeily-Gazkohani"/>
+    <s v="Repeat-pass cross-track interferometric SAR to measure dry snow water equivalent and depth"/>
+    <s v="Canadian Journal of Remote Sensing"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2004"/>
+    <s v="Geir Engen, Tore Guneriussen, and Øyvind Overrein"/>
+    <s v="Delta-K Interferometric SAR Technique for Snow Water Equivalent (SWE) Retrieval"/>
+    <s v="IEEE GEOSCIENCE AND REMOTE SENSING LETTERS"/>
+    <n v="18"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <s v="Tore Guneriussen, Kjell Arild Høgda, Harald Johnsen, and Inge Lauknes"/>
+    <s v="InSAR for Estimation of Changes in Snow Water Equivalent of Dry Snow"/>
+    <s v="IEEE TRANSACTIONS ON GEOSCIENCE AND REMOTE SENSING"/>
+    <n v="72"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <s v="Eric Rignot, Keith Echelmeyer, William Krabill"/>
+    <s v="Penetration depth of interferometric synthetic-aperture radar signals in snow and ice"/>
+    <s v="GEOPHYSICAL RESEARCH LETTERS"/>
+    <n v="209"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+  <r>
+    <n v="2011"/>
+    <s v="ELIAS J. DEEB*†‡, RICHARD R. FORSTER‡ and DOUGLAS L. KANE"/>
+    <s v="Monitoring snowpack evolution using interferometric synthetic aperture radar on the North Slope of Alaska, USA"/>
+    <s v="International Journal of Remote Sensing"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <s v="C"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2021"/>
+    <s v="Ahmet Tarık TORUN &amp; Semih EKERCİN "/>
+    <s v="Estimating snow density, depth, volume, and snow water equivalent with InSAR data in the Erciyes mountain/Turkey"/>
+    <s v="Arabian Journal of Geosciences"/>
+    <m/>
+    <s v="Mount Erciyes/Turkey"/>
+    <s v="SD,SDn, SV, SWE"/>
+    <x v="1"/>
+    <s v="X"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Using single polarization"/>
+    <m/>
+    <s v="Satisfactory result was obtained with single-polarization data"/>
+  </r>
+  <r>
+    <n v="2021"/>
+    <s v="Shubham Awasthi a , Shashi Kumar b , Praveen K Thakur c , Kamal Jain d , Ajeet Kumar e and Snehmanif"/>
+    <s v="Snow depth retrieval in North-Western Himalayan region using pursuit-monostatic TanDEM-X datasets applying polarimetric synthetic aperture radar interferometry based inversion Modelling"/>
+    <s v="International Journal of Remote Sensing"/>
+    <n v="1"/>
+    <s v="North-Western Himalaya region"/>
+    <s v="SD"/>
+    <x v="1"/>
+    <s v="X"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="PolSAR and InSAR have proven useful in estimating snow parameters. InSAR technique is based on interferometric phase information from repeat pass observation. However, loss of interferometric coherence is a major challenge in employing repeat-pass SAR interferometry due to large temporal gap between the repeat passes that result in temporal decorellation. So, there is need for a technique for snow parameter observation which can work with zero temporal baseline"/>
+    <s v="Development of Polarimetric SAR Interferometric based modelling approach for snow-depth estimation using TerraSAR-X/TanDEM-X datasets acquired in the pursuit monostatic mode with almost zero temporal baseline (10secs)"/>
+    <s v="PolInSAR based Coherence Amplitude inversion modelling"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2021"/>
+    <s v="Jinming Yang1 &amp; Chengzhi Li"/>
+    <s v="Assimilation of D-InSAR snow depth data by an ensemble Kalman filter"/>
+    <s v="Arabian Journal of Geosciences"/>
+    <n v="0"/>
+    <s v="Xinjiang, China"/>
+    <s v="SD"/>
+    <x v="2"/>
+    <s v="C"/>
+    <s v="ultrasonic probe and manual measurement"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="D-InSAR inversion of snow deoth and Data Assimilation to Improve spatial and temporal resolution by "/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2020"/>
+    <s v="Abdul Basir Mahmoodzada, Divyesh Varade"/>
+    <s v="Estimation of Snow Depth in the Hindu Kush Himalayas of Afghanistan during Peak Winter and Early Melt Season"/>
+    <s v="Remote Sensing"/>
+    <n v="4"/>
+    <s v="Hindu Kush Himalayas of Afghanistan"/>
+    <s v="SD"/>
+    <x v="2"/>
+    <s v="C"/>
+    <s v="Yes"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="analyzed the potential of Sentinel-1 dual polarimetric and interferometric_x000a_observations for the estimation of snow depth"/>
+    <s v="DInSAR"/>
+    <s v="Snow pertimitivity to improve the estimation of snowpack displacement "/>
+  </r>
+  <r>
+    <n v="2020"/>
+    <s v="Shadi Oveisgharan"/>
+    <s v="Evaluating the Preconditions of Two Remote Sensing SWE Retrieval Algorithms over the US"/>
+    <s v="Remote Sensing"/>
+    <n v="2"/>
+    <s v="US"/>
+    <s v="SWE"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -3931,7 +3948,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="5"/>
+    <x v="4"/>
     <s v="L"/>
     <m/>
     <m/>
@@ -3985,7 +4002,7 @@
     <n v="10"/>
     <s v="Sierra Nevada"/>
     <s v="SWE"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="Ka"/>
     <m/>
     <m/>
@@ -4003,7 +4020,7 @@
     <n v="0"/>
     <m/>
     <s v="SD"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="Ka"/>
     <m/>
     <m/>
@@ -4022,7 +4039,7 @@
     <s v="The Beas River Basin Manali Town India"/>
     <s v="SWE"/>
     <x v="1"/>
-    <s v="C"/>
+    <s v="X"/>
     <m/>
     <m/>
     <m/>
@@ -4039,7 +4056,7 @@
     <n v="14"/>
     <s v="Manaz River Bazin"/>
     <s v="SD"/>
-    <x v="7"/>
+    <x v="6"/>
     <s v="C"/>
     <m/>
     <m/>
@@ -4057,7 +4074,7 @@
     <n v="2"/>
     <s v="Manaz River Bazin"/>
     <s v="SD"/>
-    <x v="7"/>
+    <x v="6"/>
     <s v="C"/>
     <m/>
     <m/>
@@ -4075,7 +4092,7 @@
     <n v="48"/>
     <m/>
     <s v="SWE"/>
-    <x v="8"/>
+    <x v="7"/>
     <s v="C"/>
     <m/>
     <m/>
@@ -4093,7 +4110,7 @@
     <n v="5"/>
     <m/>
     <m/>
-    <x v="9"/>
+    <x v="8"/>
     <s v="Ku"/>
     <m/>
     <m/>
@@ -4111,7 +4128,7 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="9"/>
+    <x v="8"/>
     <s v="Ku"/>
     <m/>
     <m/>
@@ -4147,7 +4164,7 @@
     <n v="2"/>
     <m/>
     <m/>
-    <x v="10"/>
+    <x v="9"/>
     <m/>
     <m/>
     <m/>
@@ -4215,182 +4232,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E05C65E-D7A1-4E3B-922A-CC442FB57A1C}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Band" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B74AB8F-E5F1-4E45-8F26-5C3384292D92}" name="PivotTable32" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A5E32CA-9D24-48C9-925B-1B1430A0F72A}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
@@ -4442,16 +4285,15 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="11">
-        <item x="10"/>
-        <item x="7"/>
+      <items count="10">
+        <item x="9"/>
+        <item x="6"/>
         <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
         <item x="5"/>
+        <item x="8"/>
         <item x="4"/>
         <item x="2"/>
-        <item x="8"/>
+        <item x="7"/>
         <item x="1"/>
         <item h="1" x="3"/>
       </items>
@@ -4521,7 +4363,7 @@
   <rowFields count="1">
     <field x="7"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -4549,15 +4391,198 @@
     <i>
       <x v="8"/>
     </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Satelite Data" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08703441-251E-4138-A70B-B40BD418949D}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="5">
     <i>
-      <x v="9"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Satelite Data" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Band" fld="8" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -4848,11 +4873,11 @@
   <dimension ref="A1:I1834"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6120,13 +6145,13 @@
         <v>44502</v>
       </c>
       <c r="D65" t="s">
+        <v>276</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" t="s">
         <v>278</v>
-      </c>
-      <c r="G65" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6140,10 +6165,10 @@
         <v>44503</v>
       </c>
       <c r="D66" t="s">
+        <v>279</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -6157,10 +6182,10 @@
         <v>44504</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -6174,19 +6199,19 @@
         <v>44505</v>
       </c>
       <c r="D68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G68" t="s">
         <v>282</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>283</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>284</v>
-      </c>
-      <c r="I68" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -6200,6 +6225,9 @@
         <v>44506</v>
       </c>
       <c r="D69" t="s">
+        <v>287</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6213,6 +6241,12 @@
       <c r="C70" s="1">
         <v>44507</v>
       </c>
+      <c r="D70" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -6224,6 +6258,12 @@
       <c r="C71" s="1">
         <v>44508</v>
       </c>
+      <c r="D71" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -6235,6 +6275,12 @@
       <c r="C72" s="1">
         <v>44509</v>
       </c>
+      <c r="D72" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -6246,6 +6292,12 @@
       <c r="C73" s="1">
         <v>44510</v>
       </c>
+      <c r="D73" t="s">
+        <v>292</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -6257,6 +6309,12 @@
       <c r="C74" s="1">
         <v>44511</v>
       </c>
+      <c r="D74">
+        <v>81</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -6268,6 +6326,12 @@
       <c r="C75" s="1">
         <v>44512</v>
       </c>
+      <c r="D75">
+        <v>82</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -6279,8 +6343,14 @@
       <c r="C76" s="1">
         <v>44513</v>
       </c>
+      <c r="D76">
+        <v>83</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>231</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6293,8 +6363,14 @@
       <c r="C77" s="1">
         <v>44514</v>
       </c>
+      <c r="D77">
+        <v>84</v>
+      </c>
       <c r="E77" s="2" t="s">
         <v>231</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -6307,8 +6383,14 @@
       <c r="C78" s="1">
         <v>44515</v>
       </c>
+      <c r="D78">
+        <v>85</v>
+      </c>
       <c r="E78" s="2" t="s">
         <v>231</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6321,8 +6403,14 @@
       <c r="C79" s="1">
         <v>44516</v>
       </c>
+      <c r="D79">
+        <v>86</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>231</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -6335,11 +6423,17 @@
       <c r="C80" s="1">
         <v>44517</v>
       </c>
+      <c r="D80">
+        <v>87</v>
+      </c>
       <c r="E80" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F80" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44518</v>
       </c>
@@ -6349,8 +6443,14 @@
       <c r="C81" s="1">
         <v>44518</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>88</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44519</v>
       </c>
@@ -6360,8 +6460,14 @@
       <c r="C82" s="1">
         <v>44519</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>89</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44520</v>
       </c>
@@ -6371,8 +6477,14 @@
       <c r="C83" s="1">
         <v>44520</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>90</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44521</v>
       </c>
@@ -6382,8 +6494,14 @@
       <c r="C84" s="1">
         <v>44521</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>91</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44522</v>
       </c>
@@ -6393,8 +6511,14 @@
       <c r="C85" s="1">
         <v>44522</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>92</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44523</v>
       </c>
@@ -6404,8 +6528,14 @@
       <c r="C86" s="1">
         <v>44523</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>93</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44524</v>
       </c>
@@ -6415,8 +6545,14 @@
       <c r="C87" s="1">
         <v>44524</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>94</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44525</v>
       </c>
@@ -6426,8 +6562,14 @@
       <c r="C88" s="1">
         <v>44525</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>95</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44526</v>
       </c>
@@ -6437,8 +6579,14 @@
       <c r="C89" s="1">
         <v>44526</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>96</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44527</v>
       </c>
@@ -6448,8 +6596,14 @@
       <c r="C90" s="1">
         <v>44527</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>97</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44528</v>
       </c>
@@ -6459,8 +6613,14 @@
       <c r="C91" s="1">
         <v>44528</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>98</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44529</v>
       </c>
@@ -6470,8 +6630,14 @@
       <c r="C92" s="1">
         <v>44529</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>99</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44530</v>
       </c>
@@ -6481,8 +6647,14 @@
       <c r="C93" s="1">
         <v>44530</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>100</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44531</v>
       </c>
@@ -6492,8 +6664,14 @@
       <c r="C94" s="1">
         <v>44531</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>101</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44532</v>
       </c>
@@ -6503,8 +6681,14 @@
       <c r="C95" s="1">
         <v>44532</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>102</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44533</v>
       </c>
@@ -6514,8 +6698,14 @@
       <c r="C96" s="1">
         <v>44533</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>103</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44534</v>
       </c>
@@ -6525,8 +6715,14 @@
       <c r="C97" s="1">
         <v>44534</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>104</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44535</v>
       </c>
@@ -6536,8 +6732,14 @@
       <c r="C98" s="1">
         <v>44535</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>105</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44536</v>
       </c>
@@ -6547,8 +6749,14 @@
       <c r="C99" s="1">
         <v>44536</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>106</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44537</v>
       </c>
@@ -6558,8 +6766,14 @@
       <c r="C100" s="1">
         <v>44537</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>107</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44538</v>
       </c>
@@ -6569,8 +6783,14 @@
       <c r="C101" s="1">
         <v>44538</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>293</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44539</v>
       </c>
@@ -6581,7 +6801,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44540</v>
       </c>
@@ -6592,7 +6812,7 @@
         <v>44540</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44541</v>
       </c>
@@ -6603,7 +6823,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44542</v>
       </c>
@@ -6614,7 +6834,7 @@
         <v>44542</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44543</v>
       </c>
@@ -6625,7 +6845,7 @@
         <v>44543</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44544</v>
       </c>
@@ -6636,7 +6856,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44545</v>
       </c>
@@ -6647,7 +6867,7 @@
         <v>44545</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44546</v>
       </c>
@@ -6658,7 +6878,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44547</v>
       </c>
@@ -6669,7 +6889,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44548</v>
       </c>
@@ -6680,7 +6900,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44549</v>
       </c>
@@ -25640,6 +25860,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961A58F2-CF4C-4CDA-9577-ADCA34CF28E5}">
+  <dimension ref="A3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="27">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3A1FA6-ADBF-4620-9700-1646947406D5}">
   <dimension ref="A1:P27"/>
   <sheetViews>
@@ -25657,7 +25977,8 @@
     <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
     <col min="13" max="13" width="40" style="2" customWidth="1"/>
@@ -25691,7 +26012,7 @@
         <v>243</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>81</v>
@@ -25759,10 +26080,10 @@
         <v>91</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>87</v>
@@ -25794,10 +26115,10 @@
         <v>92</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>130</v>
@@ -25930,7 +26251,7 @@
         <v>109</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I8" t="s">
         <v>265</v>
@@ -25989,10 +26310,10 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J10" s="16"/>
       <c r="P10" s="2"/>
@@ -26020,10 +26341,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>118</v>
@@ -26036,10 +26357,10 @@
       <c r="C12" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" t="s">
         <v>265</v>
       </c>
     </row>
@@ -26121,7 +26442,7 @@
         <v>109</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>264</v>
@@ -26150,7 +26471,7 @@
         <v>92</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>264</v>
@@ -26177,10 +26498,10 @@
         <v>109</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I17" t="s">
-        <v>262</v>
+        <v>270</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>122</v>
@@ -26271,7 +26592,7 @@
         <v>109</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>262</v>
@@ -26296,7 +26617,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I21" t="s">
         <v>263</v>
@@ -26321,7 +26642,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I22" t="s">
         <v>263</v>
@@ -26367,7 +26688,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -26389,10 +26710,10 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -26414,10 +26735,10 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -26449,7 +26770,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD629FE-F56F-4D1E-91CB-B941304B4195}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB26E862-BB81-4C78-8D3A-B6B138275549}">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -26784,182 +27173,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD0F739-02D9-4B57-80A5-04C2334B44BC}">
-  <dimension ref="A3:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="27">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F2E459-E772-4BFC-ADFE-395C173E3D7B}">
-  <dimension ref="A3:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="27">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
